--- a/Jogos_do_Dia/2024-03-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -181,12 +181,12 @@
     <t>England Premier League</t>
   </si>
   <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
     <t>Greece Super League</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>16:30:00</t>
   </si>
   <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
     <t>Sturm Graz II</t>
   </si>
   <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
     <t>PEC Zwolle</t>
   </si>
   <si>
@@ -322,60 +322,60 @@
     <t>LASK Linz</t>
   </si>
   <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
     <t>Twente</t>
   </si>
   <si>
-    <t>Feyenoord</t>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Baník Ostrava</t>
+  </si>
+  <si>
+    <t>Hradec Králové</t>
   </si>
   <si>
     <t>Mladá Boleslav</t>
   </si>
   <si>
-    <t>Hradec Králové</t>
-  </si>
-  <si>
-    <t>Baník Ostrava</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
     <t>Viborg</t>
   </si>
   <si>
+    <t>Racing Club de Ferrol</t>
+  </si>
+  <si>
     <t>Girona FC</t>
   </si>
   <si>
-    <t>Racing Club de Ferrol</t>
-  </si>
-  <si>
     <t>Real Zaragoza</t>
   </si>
   <si>
     <t>Almere City</t>
   </si>
   <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
     <t>Sturm Graz</t>
   </si>
   <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
     <t>Strasbourg</t>
   </si>
   <si>
@@ -433,12 +433,12 @@
     <t>El Gounah</t>
   </si>
   <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>Admira</t>
   </si>
   <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
     <t>Ajax</t>
   </si>
   <si>
@@ -484,58 +484,58 @@
     <t>Austria Klagenfurt</t>
   </si>
   <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
     <t>Heracles</t>
   </si>
   <si>
-    <t>Utrecht</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Teplice</t>
+  </si>
+  <si>
+    <t>Karviná</t>
   </si>
   <si>
     <t>Zlín</t>
   </si>
   <si>
-    <t>Karviná</t>
-  </si>
-  <si>
-    <t>Teplice</t>
-  </si>
-  <si>
     <t>Brighton &amp; Hove Albion</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>Cherno More</t>
   </si>
   <si>
     <t>Köln</t>
   </si>
   <si>
-    <t>Cherno More</t>
-  </si>
-  <si>
     <t>Hvidovre</t>
   </si>
   <si>
+    <t>Elche CF</t>
+  </si>
+  <si>
     <t>Real Betis</t>
   </si>
   <si>
-    <t>Elche CF</t>
-  </si>
-  <si>
     <t>CD Tenerife</t>
   </si>
   <si>
     <t>Volendam</t>
   </si>
   <si>
+    <t>PAOK</t>
+  </si>
+  <si>
     <t>Salzburg</t>
-  </si>
-  <si>
-    <t>PAOK</t>
   </si>
   <si>
     <t>Rennes</t>
@@ -1111,22 +1111,22 @@
         <v>139</v>
       </c>
       <c r="G2">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I2">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J2">
-        <v>3.8</v>
+        <v>2.49</v>
       </c>
       <c r="K2">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="L2">
-        <v>1.63</v>
+        <v>2.47</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -1135,91 +1135,91 @@
         <v>3.25</v>
       </c>
       <c r="O2">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P2">
         <v>10.5</v>
       </c>
       <c r="Q2">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="R2">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="S2">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="T2">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V2">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X2">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y2">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="Z2">
-        <v>0.7</v>
+        <v>1.44</v>
       </c>
       <c r="AA2">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AB2">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AC2">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AD2">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AE2">
+        <v>2.53</v>
+      </c>
+      <c r="AF2">
+        <v>9.1</v>
+      </c>
+      <c r="AG2">
+        <v>1.67</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1.35</v>
+      </c>
+      <c r="AK2">
         <v>2.84</v>
       </c>
-      <c r="AF2">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG2">
-        <v>1.55</v>
-      </c>
-      <c r="AH2">
-        <v>1.2</v>
-      </c>
-      <c r="AI2">
-        <v>3.9</v>
-      </c>
-      <c r="AJ2">
+      <c r="AL2">
+        <v>2.1</v>
+      </c>
+      <c r="AM2">
+        <v>2.14</v>
+      </c>
+      <c r="AN2">
+        <v>2.06</v>
+      </c>
+      <c r="AO2">
+        <v>1.73</v>
+      </c>
+      <c r="AP2">
+        <v>2.67</v>
+      </c>
+      <c r="AQ2">
         <v>1.39</v>
-      </c>
-      <c r="AK2">
-        <v>2.67</v>
-      </c>
-      <c r="AL2">
-        <v>1.75</v>
-      </c>
-      <c r="AM2">
-        <v>2.05</v>
-      </c>
-      <c r="AN2">
-        <v>2.17</v>
-      </c>
-      <c r="AO2">
-        <v>1.67</v>
-      </c>
-      <c r="AP2">
-        <v>2.79</v>
-      </c>
-      <c r="AQ2">
-        <v>1.36</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1242,22 +1242,22 @@
         <v>140</v>
       </c>
       <c r="G3">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="H3">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I3">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="J3">
-        <v>2.35</v>
+        <v>4.05</v>
       </c>
       <c r="K3">
-        <v>3.22</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="M3">
         <v>1.33</v>
@@ -1266,91 +1266,91 @@
         <v>3.25</v>
       </c>
       <c r="O3">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P3">
         <v>10.5</v>
       </c>
       <c r="Q3">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="R3">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="S3">
+        <v>1.61</v>
+      </c>
+      <c r="T3">
+        <v>2.08</v>
+      </c>
+      <c r="U3">
+        <v>1.73</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1.9</v>
+      </c>
+      <c r="X3">
+        <v>1.2</v>
+      </c>
+      <c r="Y3">
+        <v>1.2</v>
+      </c>
+      <c r="Z3">
+        <v>0.7</v>
+      </c>
+      <c r="AA3">
+        <v>0.9</v>
+      </c>
+      <c r="AB3">
+        <v>1.17</v>
+      </c>
+      <c r="AC3">
+        <v>1.49</v>
+      </c>
+      <c r="AD3">
+        <v>2.66</v>
+      </c>
+      <c r="AE3">
+        <v>2.84</v>
+      </c>
+      <c r="AF3">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>1.55</v>
+      </c>
+      <c r="AH3">
+        <v>1.2</v>
+      </c>
+      <c r="AI3">
+        <v>3.9</v>
+      </c>
+      <c r="AJ3">
+        <v>1.39</v>
+      </c>
+      <c r="AK3">
+        <v>2.67</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>2.05</v>
+      </c>
+      <c r="AN3">
+        <v>2.17</v>
+      </c>
+      <c r="AO3">
         <v>1.67</v>
       </c>
-      <c r="T3">
-        <v>1.99</v>
-      </c>
-      <c r="U3">
-        <v>1.67</v>
-      </c>
-      <c r="V3">
-        <v>2.1</v>
-      </c>
-      <c r="W3">
-        <v>1.7</v>
-      </c>
-      <c r="X3">
-        <v>1.22</v>
-      </c>
-      <c r="Y3">
-        <v>1.35</v>
-      </c>
-      <c r="Z3">
-        <v>1.44</v>
-      </c>
-      <c r="AA3">
-        <v>1.5</v>
-      </c>
-      <c r="AB3">
-        <v>1.18</v>
-      </c>
-      <c r="AC3">
-        <v>1.5</v>
-      </c>
-      <c r="AD3">
-        <v>2.68</v>
-      </c>
-      <c r="AE3">
-        <v>2.53</v>
-      </c>
-      <c r="AF3">
-        <v>9.1</v>
-      </c>
-      <c r="AG3">
-        <v>1.67</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>1.35</v>
-      </c>
-      <c r="AK3">
-        <v>2.84</v>
-      </c>
-      <c r="AL3">
-        <v>1.67</v>
-      </c>
-      <c r="AM3">
-        <v>2.14</v>
-      </c>
-      <c r="AN3">
-        <v>2.06</v>
-      </c>
-      <c r="AO3">
-        <v>1.73</v>
-      </c>
       <c r="AP3">
-        <v>2.67</v>
+        <v>2.79</v>
       </c>
       <c r="AQ3">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1382,10 +1382,10 @@
         <v>2.3</v>
       </c>
       <c r="J4">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L4">
         <v>1.74</v>
@@ -1504,22 +1504,22 @@
         <v>142</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H5">
         <v>2.2</v>
       </c>
       <c r="I5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
-        <v>3.07</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="L5">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1540,10 +1540,10 @@
         <v>4</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="T5">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U5">
         <v>1.67</v>
@@ -1644,13 +1644,13 @@
         <v>1.62</v>
       </c>
       <c r="J6">
-        <v>7.38</v>
+        <v>8.25</v>
       </c>
       <c r="K6">
-        <v>5.56</v>
+        <v>6.2</v>
       </c>
       <c r="L6">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M6">
         <v>1.25</v>
@@ -1716,10 +1716,10 @@
         <v>1.11</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AJ6">
         <v>1.21</v>
@@ -1775,13 +1775,13 @@
         <v>2.63</v>
       </c>
       <c r="J7">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K7">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1802,10 +1802,10 @@
         <v>3.04</v>
       </c>
       <c r="S7">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T7">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1906,13 +1906,13 @@
         <v>3.75</v>
       </c>
       <c r="J8">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K8">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="L8">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="M8">
         <v>1.5</v>
@@ -1933,10 +1933,10 @@
         <v>2.75</v>
       </c>
       <c r="S8">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="T8">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -2037,13 +2037,13 @@
         <v>3.75</v>
       </c>
       <c r="J9">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L9">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
         <v>1.3</v>
@@ -2064,10 +2064,10 @@
         <v>4.2</v>
       </c>
       <c r="S9">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="T9">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="U9">
         <v>1.57</v>
@@ -2168,13 +2168,13 @@
         <v>2.75</v>
       </c>
       <c r="J10">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="K10">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L10">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="M10">
         <v>1.25</v>
@@ -2299,13 +2299,13 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="K11">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L11">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="M11">
         <v>1.29</v>
@@ -2326,10 +2326,10 @@
         <v>4.5</v>
       </c>
       <c r="S11">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T11">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -2430,10 +2430,10 @@
         <v>3.2</v>
       </c>
       <c r="J12">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="K12">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L12">
         <v>2.65</v>
@@ -2457,10 +2457,10 @@
         <v>4.5</v>
       </c>
       <c r="S12">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U12">
         <v>1.5</v>
@@ -2561,13 +2561,13 @@
         <v>3.2</v>
       </c>
       <c r="J13">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L13">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="M13">
         <v>1.29</v>
@@ -2588,10 +2588,10 @@
         <v>4.75</v>
       </c>
       <c r="S13">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="T13">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U13">
         <v>1.5</v>
@@ -2692,13 +2692,13 @@
         <v>4.33</v>
       </c>
       <c r="J14">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="K14">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -2719,10 +2719,10 @@
         <v>3.35</v>
       </c>
       <c r="S14">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="T14">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U14">
         <v>1.8</v>
@@ -2823,13 +2823,13 @@
         <v>4.33</v>
       </c>
       <c r="J15">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="K15">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="L15">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="M15">
         <v>1.61</v>
@@ -2844,16 +2844,16 @@
         <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R15">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S15">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="T15">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U15">
         <v>2.25</v>
@@ -2954,13 +2954,13 @@
         <v>4.5</v>
       </c>
       <c r="J16">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="K16">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="L16">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
         <v>1.44</v>
@@ -2981,10 +2981,10 @@
         <v>3.08</v>
       </c>
       <c r="S16">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T16">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="U16">
         <v>1.95</v>
@@ -3085,13 +3085,13 @@
         <v>2.88</v>
       </c>
       <c r="J17">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="K17">
         <v>3.5</v>
       </c>
       <c r="L17">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="M17">
         <v>1.4</v>
@@ -3112,10 +3112,10 @@
         <v>3.6</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="T17">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U17">
         <v>1.75</v>
@@ -3216,13 +3216,13 @@
         <v>5.5</v>
       </c>
       <c r="J18">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="K18">
-        <v>3.52</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>4.21</v>
+        <v>4.3</v>
       </c>
       <c r="M18">
         <v>1.36</v>
@@ -3243,10 +3243,10 @@
         <v>3.6</v>
       </c>
       <c r="S18">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="T18">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U18">
         <v>1.95</v>
@@ -3338,46 +3338,46 @@
         <v>156</v>
       </c>
       <c r="G19">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H19">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="I19">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="K19">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>6.9</v>
       </c>
       <c r="M19">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O19">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q19">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="R19">
-        <v>6.25</v>
+        <v>4.87</v>
       </c>
       <c r="S19">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T19">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="U19">
         <v>1.95</v>
@@ -3386,67 +3386,67 @@
         <v>1.8</v>
       </c>
       <c r="W19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="X19">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Y19">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="Z19">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="AA19">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="AB19">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AD19">
-        <v>2.81</v>
+        <v>3.55</v>
       </c>
       <c r="AE19">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF19">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG19">
-        <v>5.75</v>
+        <v>6.4</v>
       </c>
       <c r="AH19">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AI19">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="AJ19">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AK19">
-        <v>3.9</v>
+        <v>2.85</v>
       </c>
       <c r="AL19">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AM19">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="AN19">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="AO19">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AP19">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="AQ19">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3469,46 +3469,46 @@
         <v>157</v>
       </c>
       <c r="G20">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H20">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J20">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="L20">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q20">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="R20">
-        <v>4.87</v>
+        <v>6.25</v>
       </c>
       <c r="S20">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="T20">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U20">
         <v>1.95</v>
@@ -3517,72 +3517,72 @@
         <v>1.8</v>
       </c>
       <c r="W20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Y20">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="Z20">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="AA20">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
       <c r="AB20">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>2.81</v>
+      </c>
+      <c r="AE20">
+        <v>1.22</v>
+      </c>
+      <c r="AF20">
+        <v>12</v>
+      </c>
+      <c r="AG20">
+        <v>5.75</v>
+      </c>
+      <c r="AH20">
+        <v>1.1</v>
+      </c>
+      <c r="AI20">
+        <v>5.6</v>
+      </c>
+      <c r="AJ20">
         <v>1.19</v>
       </c>
-      <c r="AD20">
-        <v>3.55</v>
-      </c>
-      <c r="AE20">
-        <v>1.2</v>
-      </c>
-      <c r="AF20">
-        <v>11.5</v>
-      </c>
-      <c r="AG20">
-        <v>6.4</v>
-      </c>
-      <c r="AH20">
-        <v>1.18</v>
-      </c>
-      <c r="AI20">
-        <v>4</v>
-      </c>
-      <c r="AJ20">
-        <v>1.33</v>
-      </c>
       <c r="AK20">
-        <v>2.85</v>
+        <v>3.9</v>
       </c>
       <c r="AL20">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AM20">
-        <v>2.16</v>
+        <v>2.8</v>
       </c>
       <c r="AN20">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="AO20">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AP20">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="AQ20">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2">
         <v>45382</v>
@@ -3591,7 +3591,7 @@
         <v>69</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>104</v>
@@ -3600,120 +3600,120 @@
         <v>158</v>
       </c>
       <c r="G21">
+        <v>3.25</v>
+      </c>
+      <c r="H21">
+        <v>2.1</v>
+      </c>
+      <c r="I21">
+        <v>3.25</v>
+      </c>
+      <c r="J21">
+        <v>2.39</v>
+      </c>
+      <c r="K21">
+        <v>3.2</v>
+      </c>
+      <c r="L21">
+        <v>2.78</v>
+      </c>
+      <c r="M21">
+        <v>1.4</v>
+      </c>
+      <c r="N21">
+        <v>2.75</v>
+      </c>
+      <c r="O21">
+        <v>1.06</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>1.33</v>
+      </c>
+      <c r="R21">
+        <v>3.3</v>
+      </c>
+      <c r="S21">
+        <v>1.97</v>
+      </c>
+      <c r="T21">
+        <v>1.71</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
         <v>2</v>
       </c>
-      <c r="H21">
-        <v>2.4</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
+      <c r="W21">
         <v>1.46</v>
       </c>
-      <c r="K21">
-        <v>3.49</v>
-      </c>
-      <c r="L21">
-        <v>5.01</v>
-      </c>
-      <c r="M21">
-        <v>1.3</v>
-      </c>
-      <c r="N21">
-        <v>3.4</v>
-      </c>
-      <c r="O21">
-        <v>1.03</v>
-      </c>
-      <c r="P21">
-        <v>16.75</v>
-      </c>
-      <c r="Q21">
-        <v>1.2</v>
-      </c>
-      <c r="R21">
-        <v>4.2</v>
-      </c>
-      <c r="S21">
-        <v>1.65</v>
-      </c>
-      <c r="T21">
+      <c r="X21">
+        <v>1.31</v>
+      </c>
+      <c r="Y21">
+        <v>1.49</v>
+      </c>
+      <c r="Z21">
+        <v>1.42</v>
+      </c>
+      <c r="AA21">
+        <v>1.08</v>
+      </c>
+      <c r="AB21">
+        <v>1.43</v>
+      </c>
+      <c r="AC21">
+        <v>1.27</v>
+      </c>
+      <c r="AD21">
+        <v>2.7</v>
+      </c>
+      <c r="AE21">
+        <v>1.93</v>
+      </c>
+      <c r="AF21">
+        <v>7</v>
+      </c>
+      <c r="AG21">
         <v>2.17</v>
       </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
-      <c r="V21">
-        <v>1.95</v>
-      </c>
-      <c r="W21">
-        <v>1.07</v>
-      </c>
-      <c r="X21">
-        <v>1.16</v>
-      </c>
-      <c r="Y21">
-        <v>2.6</v>
-      </c>
-      <c r="Z21">
-        <v>1.77</v>
-      </c>
-      <c r="AA21">
-        <v>0.46</v>
-      </c>
-      <c r="AB21">
-        <v>1.59</v>
-      </c>
-      <c r="AC21">
-        <v>1.07</v>
-      </c>
-      <c r="AD21">
-        <v>2.66</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN21">
-        <v>1.98</v>
+        <v>2.65</v>
       </c>
       <c r="AO21">
-        <v>1.82</v>
+        <v>1.38</v>
       </c>
       <c r="AP21">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2">
         <v>45382</v>
@@ -3722,7 +3722,7 @@
         <v>69</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
         <v>105</v>
@@ -3731,120 +3731,120 @@
         <v>159</v>
       </c>
       <c r="G22">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H22">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I22">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1.63</v>
+        <v>2.56</v>
       </c>
       <c r="K22">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="M22">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O22">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="Q22">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="R22">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="S22">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="T22">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="U22">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
+        <v>1.57</v>
+      </c>
+      <c r="X22">
+        <v>1.3</v>
+      </c>
+      <c r="Y22">
+        <v>1.39</v>
+      </c>
+      <c r="Z22">
+        <v>0.77</v>
+      </c>
+      <c r="AA22">
         <v>1.15</v>
       </c>
-      <c r="X22">
-        <v>1.22</v>
-      </c>
-      <c r="Y22">
-        <v>2.1</v>
-      </c>
-      <c r="Z22">
-        <v>1.58</v>
-      </c>
-      <c r="AA22">
-        <v>0.5</v>
-      </c>
       <c r="AB22">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AC22">
-        <v>1.28</v>
+        <v>1.09</v>
       </c>
       <c r="AD22">
-        <v>2.79</v>
+        <v>2.4</v>
       </c>
       <c r="AE22">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="AF22">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AG22">
-        <v>3.44</v>
+        <v>1.98</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AJ22">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AK22">
-        <v>3.34</v>
+        <v>2.12</v>
       </c>
       <c r="AL22">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="AM22">
-        <v>2.53</v>
+        <v>1.68</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="AO22">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AP22">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>45382</v>
@@ -3853,7 +3853,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>106</v>
@@ -3862,120 +3862,120 @@
         <v>160</v>
       </c>
       <c r="G23">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H23">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J23">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L23">
-        <v>3.45</v>
+        <v>5.65</v>
       </c>
       <c r="M23">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N23">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O23">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="P23">
         <v>8.5</v>
       </c>
       <c r="Q23">
+        <v>1.4</v>
+      </c>
+      <c r="R23">
+        <v>2.95</v>
+      </c>
+      <c r="S23">
+        <v>2.21</v>
+      </c>
+      <c r="T23">
+        <v>1.57</v>
+      </c>
+      <c r="U23">
+        <v>2.05</v>
+      </c>
+      <c r="V23">
+        <v>1.7</v>
+      </c>
+      <c r="W23">
+        <v>1.17</v>
+      </c>
+      <c r="X23">
+        <v>1.25</v>
+      </c>
+      <c r="Y23">
+        <v>2.15</v>
+      </c>
+      <c r="Z23">
+        <v>1.92</v>
+      </c>
+      <c r="AA23">
+        <v>1.08</v>
+      </c>
+      <c r="AB23">
+        <v>1.48</v>
+      </c>
+      <c r="AC23">
+        <v>1.11</v>
+      </c>
+      <c r="AD23">
+        <v>2.59</v>
+      </c>
+      <c r="AE23">
+        <v>1.47</v>
+      </c>
+      <c r="AF23">
+        <v>8</v>
+      </c>
+      <c r="AG23">
+        <v>3.3</v>
+      </c>
+      <c r="AH23">
+        <v>1.38</v>
+      </c>
+      <c r="AI23">
+        <v>2.65</v>
+      </c>
+      <c r="AJ23">
+        <v>1.68</v>
+      </c>
+      <c r="AK23">
+        <v>2</v>
+      </c>
+      <c r="AL23">
+        <v>2.14</v>
+      </c>
+      <c r="AM23">
+        <v>1.6</v>
+      </c>
+      <c r="AN23">
+        <v>2.75</v>
+      </c>
+      <c r="AO23">
+        <v>1.35</v>
+      </c>
+      <c r="AP23">
+        <v>3.75</v>
+      </c>
+      <c r="AQ23">
         <v>1.2</v>
-      </c>
-      <c r="R23">
-        <v>3.9</v>
-      </c>
-      <c r="S23">
-        <v>1.79</v>
-      </c>
-      <c r="T23">
-        <v>1.93</v>
-      </c>
-      <c r="U23">
-        <v>1.75</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>1.11</v>
-      </c>
-      <c r="X23">
-        <v>1.18</v>
-      </c>
-      <c r="Y23">
-        <v>2.3</v>
-      </c>
-      <c r="Z23">
-        <v>1.25</v>
-      </c>
-      <c r="AA23">
-        <v>0.92</v>
-      </c>
-      <c r="AB23">
-        <v>1.93</v>
-      </c>
-      <c r="AC23">
-        <v>1.32</v>
-      </c>
-      <c r="AD23">
-        <v>3.25</v>
-      </c>
-      <c r="AE23">
-        <v>1.42</v>
-      </c>
-      <c r="AF23">
-        <v>10</v>
-      </c>
-      <c r="AG23">
-        <v>3.32</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>1.25</v>
-      </c>
-      <c r="AK23">
-        <v>3.42</v>
-      </c>
-      <c r="AL23">
-        <v>1.46</v>
-      </c>
-      <c r="AM23">
-        <v>2.45</v>
-      </c>
-      <c r="AN23">
-        <v>2</v>
-      </c>
-      <c r="AO23">
-        <v>1.8</v>
-      </c>
-      <c r="AP23">
-        <v>2.21</v>
-      </c>
-      <c r="AQ23">
-        <v>1.64</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2">
         <v>45382</v>
@@ -3984,7 +3984,7 @@
         <v>69</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
         <v>107</v>
@@ -3993,120 +3993,120 @@
         <v>161</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H24">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="K24">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="L24">
-        <v>5.62</v>
+        <v>5.05</v>
       </c>
       <c r="M24">
+        <v>1.33</v>
+      </c>
+      <c r="N24">
+        <v>3.25</v>
+      </c>
+      <c r="O24">
+        <v>1.04</v>
+      </c>
+      <c r="P24">
+        <v>8.5</v>
+      </c>
+      <c r="Q24">
         <v>1.2</v>
       </c>
-      <c r="N24">
-        <v>4.33</v>
-      </c>
-      <c r="O24">
-        <v>1.01</v>
-      </c>
-      <c r="P24">
-        <v>28</v>
-      </c>
-      <c r="Q24">
+      <c r="R24">
+        <v>3.9</v>
+      </c>
+      <c r="S24">
+        <v>1.58</v>
+      </c>
+      <c r="T24">
+        <v>2.13</v>
+      </c>
+      <c r="U24">
+        <v>1.75</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
         <v>1.11</v>
       </c>
-      <c r="R24">
-        <v>7.2</v>
-      </c>
-      <c r="S24">
-        <v>1.41</v>
-      </c>
-      <c r="T24">
-        <v>2.63</v>
-      </c>
-      <c r="U24">
-        <v>1.57</v>
-      </c>
-      <c r="V24">
-        <v>2.25</v>
-      </c>
-      <c r="W24">
-        <v>1.08</v>
-      </c>
       <c r="X24">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Y24">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="Z24">
-        <v>2.57</v>
+        <v>1.25</v>
       </c>
       <c r="AA24">
-        <v>1.07</v>
+        <v>0.92</v>
       </c>
       <c r="AB24">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="AC24">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AD24">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="AE24">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AF24">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG24">
-        <v>4.4</v>
+        <v>3.32</v>
       </c>
       <c r="AH24">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AI24">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AJ24">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AK24">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
       <c r="AL24">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AM24">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AN24">
         <v>2</v>
       </c>
       <c r="AO24">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AP24">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="AQ24">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2">
         <v>45382</v>
@@ -4115,7 +4115,7 @@
         <v>69</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
         <v>108</v>
@@ -4124,120 +4124,120 @@
         <v>162</v>
       </c>
       <c r="G25">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H25">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I25">
         <v>5.5</v>
       </c>
       <c r="J25">
+        <v>1.59</v>
+      </c>
+      <c r="K25">
+        <v>3.75</v>
+      </c>
+      <c r="L25">
+        <v>4.9</v>
+      </c>
+      <c r="M25">
+        <v>1.36</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1.04</v>
+      </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <v>1.25</v>
+      </c>
+      <c r="R25">
+        <v>3.75</v>
+      </c>
+      <c r="S25">
+        <v>1.82</v>
+      </c>
+      <c r="T25">
+        <v>1.82</v>
+      </c>
+      <c r="U25">
+        <v>1.91</v>
+      </c>
+      <c r="V25">
+        <v>1.91</v>
+      </c>
+      <c r="W25">
+        <v>1.15</v>
+      </c>
+      <c r="X25">
+        <v>1.22</v>
+      </c>
+      <c r="Y25">
+        <v>2.1</v>
+      </c>
+      <c r="Z25">
+        <v>1.58</v>
+      </c>
+      <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
+        <v>1.51</v>
+      </c>
+      <c r="AC25">
+        <v>1.28</v>
+      </c>
+      <c r="AD25">
+        <v>2.79</v>
+      </c>
+      <c r="AE25">
+        <v>1.39</v>
+      </c>
+      <c r="AF25">
+        <v>10.5</v>
+      </c>
+      <c r="AG25">
+        <v>3.44</v>
+      </c>
+      <c r="AH25">
+        <v>1.2</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.26</v>
+      </c>
+      <c r="AK25">
+        <v>3.34</v>
+      </c>
+      <c r="AL25">
+        <v>1.49</v>
+      </c>
+      <c r="AM25">
+        <v>2.53</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <v>1.8</v>
+      </c>
+      <c r="AP25">
+        <v>2.27</v>
+      </c>
+      <c r="AQ25">
         <v>1.6</v>
-      </c>
-      <c r="K25">
-        <v>3.8</v>
-      </c>
-      <c r="L25">
-        <v>6.2</v>
-      </c>
-      <c r="M25">
-        <v>1.44</v>
-      </c>
-      <c r="N25">
-        <v>2.63</v>
-      </c>
-      <c r="O25">
-        <v>1.08</v>
-      </c>
-      <c r="P25">
-        <v>8.5</v>
-      </c>
-      <c r="Q25">
-        <v>1.4</v>
-      </c>
-      <c r="R25">
-        <v>2.95</v>
-      </c>
-      <c r="S25">
-        <v>2.3</v>
-      </c>
-      <c r="T25">
-        <v>1.57</v>
-      </c>
-      <c r="U25">
-        <v>2.05</v>
-      </c>
-      <c r="V25">
-        <v>1.7</v>
-      </c>
-      <c r="W25">
-        <v>1.17</v>
-      </c>
-      <c r="X25">
-        <v>1.25</v>
-      </c>
-      <c r="Y25">
-        <v>2.15</v>
-      </c>
-      <c r="Z25">
-        <v>1.92</v>
-      </c>
-      <c r="AA25">
-        <v>1.08</v>
-      </c>
-      <c r="AB25">
-        <v>1.48</v>
-      </c>
-      <c r="AC25">
-        <v>1.11</v>
-      </c>
-      <c r="AD25">
-        <v>2.59</v>
-      </c>
-      <c r="AE25">
-        <v>1.47</v>
-      </c>
-      <c r="AF25">
-        <v>8</v>
-      </c>
-      <c r="AG25">
-        <v>3.3</v>
-      </c>
-      <c r="AH25">
-        <v>1.38</v>
-      </c>
-      <c r="AI25">
-        <v>2.65</v>
-      </c>
-      <c r="AJ25">
-        <v>1.68</v>
-      </c>
-      <c r="AK25">
-        <v>2</v>
-      </c>
-      <c r="AL25">
-        <v>2.14</v>
-      </c>
-      <c r="AM25">
-        <v>1.6</v>
-      </c>
-      <c r="AN25">
-        <v>2.75</v>
-      </c>
-      <c r="AO25">
-        <v>1.35</v>
-      </c>
-      <c r="AP25">
-        <v>3.75</v>
-      </c>
-      <c r="AQ25">
-        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
         <v>45382</v>
@@ -4246,7 +4246,7 @@
         <v>69</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
         <v>109</v>
@@ -4255,46 +4255,46 @@
         <v>163</v>
       </c>
       <c r="G26">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K26">
+        <v>4.45</v>
+      </c>
+      <c r="L26">
+        <v>6.25</v>
+      </c>
+      <c r="M26">
+        <v>1.3</v>
+      </c>
+      <c r="N26">
         <v>3.4</v>
       </c>
-      <c r="L26">
-        <v>2.35</v>
-      </c>
-      <c r="M26">
-        <v>1.4</v>
-      </c>
-      <c r="N26">
-        <v>2.75</v>
-      </c>
       <c r="O26">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="P26">
-        <v>11.5</v>
+        <v>16.75</v>
       </c>
       <c r="Q26">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="R26">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="S26">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="T26">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="U26">
         <v>1.8</v>
@@ -4303,72 +4303,72 @@
         <v>1.95</v>
       </c>
       <c r="W26">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="X26">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="Y26">
-        <v>1.39</v>
+        <v>2.6</v>
       </c>
       <c r="Z26">
-        <v>0.77</v>
+        <v>1.77</v>
       </c>
       <c r="AA26">
-        <v>1.15</v>
+        <v>0.46</v>
       </c>
       <c r="AB26">
-        <v>1.31</v>
+        <v>1.59</v>
       </c>
       <c r="AC26">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD26">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="AE26">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>1.24</v>
+      </c>
+      <c r="AK26">
+        <v>3.85</v>
+      </c>
+      <c r="AL26">
+        <v>1.43</v>
+      </c>
+      <c r="AM26">
+        <v>2.7</v>
+      </c>
+      <c r="AN26">
         <v>1.98</v>
       </c>
-      <c r="AH26">
-        <v>1.33</v>
-      </c>
-      <c r="AI26">
-        <v>2.85</v>
-      </c>
-      <c r="AJ26">
-        <v>1.61</v>
-      </c>
-      <c r="AK26">
-        <v>2.12</v>
-      </c>
-      <c r="AL26">
-        <v>2.02</v>
-      </c>
-      <c r="AM26">
-        <v>1.68</v>
-      </c>
-      <c r="AN26">
-        <v>2.63</v>
-      </c>
       <c r="AO26">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="AP26">
-        <v>3.55</v>
+        <v>2.16</v>
       </c>
       <c r="AQ26">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>45382</v>
@@ -4377,7 +4377,7 @@
         <v>69</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>110</v>
@@ -4386,115 +4386,115 @@
         <v>164</v>
       </c>
       <c r="G27">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="H27">
+        <v>2.88</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>1.39</v>
+      </c>
+      <c r="K27">
+        <v>4.9</v>
+      </c>
+      <c r="L27">
+        <v>5.9</v>
+      </c>
+      <c r="M27">
+        <v>1.2</v>
+      </c>
+      <c r="N27">
+        <v>4.33</v>
+      </c>
+      <c r="O27">
+        <v>1.01</v>
+      </c>
+      <c r="P27">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>1.11</v>
+      </c>
+      <c r="R27">
+        <v>7.2</v>
+      </c>
+      <c r="S27">
+        <v>1.41</v>
+      </c>
+      <c r="T27">
+        <v>2.63</v>
+      </c>
+      <c r="U27">
+        <v>1.57</v>
+      </c>
+      <c r="V27">
+        <v>2.25</v>
+      </c>
+      <c r="W27">
+        <v>1.08</v>
+      </c>
+      <c r="X27">
+        <v>1.14</v>
+      </c>
+      <c r="Y27">
+        <v>3.15</v>
+      </c>
+      <c r="Z27">
+        <v>2.57</v>
+      </c>
+      <c r="AA27">
+        <v>1.07</v>
+      </c>
+      <c r="AB27">
+        <v>2.33</v>
+      </c>
+      <c r="AC27">
+        <v>1.48</v>
+      </c>
+      <c r="AD27">
+        <v>3.81</v>
+      </c>
+      <c r="AE27">
+        <v>1.3</v>
+      </c>
+      <c r="AF27">
+        <v>9.5</v>
+      </c>
+      <c r="AG27">
+        <v>4.4</v>
+      </c>
+      <c r="AH27">
+        <v>1.19</v>
+      </c>
+      <c r="AI27">
+        <v>3.9</v>
+      </c>
+      <c r="AJ27">
+        <v>1.36</v>
+      </c>
+      <c r="AK27">
+        <v>2.75</v>
+      </c>
+      <c r="AL27">
+        <v>1.63</v>
+      </c>
+      <c r="AM27">
         <v>2.1</v>
       </c>
-      <c r="I27">
-        <v>3.25</v>
-      </c>
-      <c r="J27">
-        <v>2.65</v>
-      </c>
-      <c r="K27">
-        <v>3.3</v>
-      </c>
-      <c r="L27">
-        <v>2.7</v>
-      </c>
-      <c r="M27">
-        <v>1.4</v>
-      </c>
-      <c r="N27">
-        <v>2.75</v>
-      </c>
-      <c r="O27">
-        <v>1.06</v>
-      </c>
-      <c r="P27">
-        <v>10</v>
-      </c>
-      <c r="Q27">
-        <v>1.33</v>
-      </c>
-      <c r="R27">
-        <v>3.3</v>
-      </c>
-      <c r="S27">
-        <v>2.02</v>
-      </c>
-      <c r="T27">
-        <v>1.79</v>
-      </c>
-      <c r="U27">
-        <v>1.75</v>
-      </c>
-      <c r="V27">
+      <c r="AN27">
         <v>2</v>
       </c>
-      <c r="W27">
-        <v>1.46</v>
-      </c>
-      <c r="X27">
-        <v>1.31</v>
-      </c>
-      <c r="Y27">
-        <v>1.49</v>
-      </c>
-      <c r="Z27">
-        <v>1.42</v>
-      </c>
-      <c r="AA27">
-        <v>1.08</v>
-      </c>
-      <c r="AB27">
-        <v>1.43</v>
-      </c>
-      <c r="AC27">
-        <v>1.27</v>
-      </c>
-      <c r="AD27">
-        <v>2.7</v>
-      </c>
-      <c r="AE27">
-        <v>1.93</v>
-      </c>
-      <c r="AF27">
-        <v>7</v>
-      </c>
-      <c r="AG27">
-        <v>2.17</v>
-      </c>
-      <c r="AH27">
-        <v>1.34</v>
-      </c>
-      <c r="AI27">
-        <v>2.8</v>
-      </c>
-      <c r="AJ27">
-        <v>1.62</v>
-      </c>
-      <c r="AK27">
-        <v>2.1</v>
-      </c>
-      <c r="AL27">
-        <v>2.02</v>
-      </c>
-      <c r="AM27">
-        <v>1.67</v>
-      </c>
-      <c r="AN27">
-        <v>2.65</v>
-      </c>
       <c r="AO27">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AP27">
-        <v>3.55</v>
+        <v>2.55</v>
       </c>
       <c r="AQ27">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4508,7 +4508,7 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
         <v>111</v>
@@ -4517,115 +4517,115 @@
         <v>165</v>
       </c>
       <c r="G28">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I28">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="K28">
-        <v>3.79</v>
+        <v>2.93</v>
       </c>
       <c r="L28">
-        <v>4.49</v>
+        <v>2.74</v>
       </c>
       <c r="M28">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="N28">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P28">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="Q28">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="S28">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="T28">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="U28">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="X28">
         <v>1.3</v>
       </c>
       <c r="Y28">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="Z28">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AA28">
-        <v>0.6899999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="AB28">
-        <v>1.39</v>
+        <v>1.87</v>
       </c>
       <c r="AC28">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="AD28">
-        <v>2.54</v>
+        <v>3.57</v>
       </c>
       <c r="AE28">
+        <v>2.02</v>
+      </c>
+      <c r="AF28">
+        <v>8.5</v>
+      </c>
+      <c r="AG28">
+        <v>2.03</v>
+      </c>
+      <c r="AH28">
+        <v>1.28</v>
+      </c>
+      <c r="AI28">
+        <v>3.2</v>
+      </c>
+      <c r="AJ28">
+        <v>1.59</v>
+      </c>
+      <c r="AK28">
+        <v>2.3</v>
+      </c>
+      <c r="AL28">
+        <v>1.97</v>
+      </c>
+      <c r="AM28">
+        <v>1.82</v>
+      </c>
+      <c r="AN28">
+        <v>2.51</v>
+      </c>
+      <c r="AO28">
         <v>1.5</v>
       </c>
-      <c r="AF28">
-        <v>8</v>
-      </c>
-      <c r="AG28">
-        <v>3.15</v>
-      </c>
-      <c r="AH28">
+      <c r="AP28">
+        <v>3.42</v>
+      </c>
+      <c r="AQ28">
         <v>1.25</v>
-      </c>
-      <c r="AI28">
-        <v>3.3</v>
-      </c>
-      <c r="AJ28">
-        <v>1.47</v>
-      </c>
-      <c r="AK28">
-        <v>2.4</v>
-      </c>
-      <c r="AL28">
-        <v>1.81</v>
-      </c>
-      <c r="AM28">
-        <v>1.88</v>
-      </c>
-      <c r="AN28">
-        <v>2.28</v>
-      </c>
-      <c r="AO28">
-        <v>1.52</v>
-      </c>
-      <c r="AP28">
-        <v>2.95</v>
-      </c>
-      <c r="AQ28">
-        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4639,7 +4639,7 @@
         <v>70</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>112</v>
@@ -4648,115 +4648,115 @@
         <v>166</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H29">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I29">
+        <v>4.75</v>
+      </c>
+      <c r="J29">
+        <v>1.62</v>
+      </c>
+      <c r="K29">
+        <v>3.9</v>
+      </c>
+      <c r="L29">
+        <v>4.6</v>
+      </c>
+      <c r="M29">
+        <v>1.33</v>
+      </c>
+      <c r="N29">
+        <v>3.25</v>
+      </c>
+      <c r="O29">
+        <v>1.03</v>
+      </c>
+      <c r="P29">
+        <v>13</v>
+      </c>
+      <c r="Q29">
+        <v>1.25</v>
+      </c>
+      <c r="R29">
         <v>4</v>
       </c>
-      <c r="J29">
-        <v>2.47</v>
-      </c>
-      <c r="K29">
-        <v>3.22</v>
-      </c>
-      <c r="L29">
-        <v>2.86</v>
-      </c>
-      <c r="M29">
-        <v>1.5</v>
-      </c>
-      <c r="N29">
-        <v>2.5</v>
-      </c>
-      <c r="O29">
-        <v>1.07</v>
-      </c>
-      <c r="P29">
-        <v>9.25</v>
-      </c>
-      <c r="Q29">
-        <v>1.35</v>
-      </c>
-      <c r="R29">
-        <v>2.9</v>
-      </c>
       <c r="S29">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T29">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="U29">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="X29">
         <v>1.3</v>
       </c>
       <c r="Y29">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="Z29">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AA29">
-        <v>1.42</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB29">
-        <v>1.87</v>
+        <v>1.39</v>
       </c>
       <c r="AC29">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="AD29">
-        <v>3.57</v>
+        <v>2.54</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ29">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AK29">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AL29">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="AM29">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AN29">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4791,10 +4791,10 @@
         <v>1.62</v>
       </c>
       <c r="K30">
+        <v>3.6</v>
+      </c>
+      <c r="L30">
         <v>4.25</v>
-      </c>
-      <c r="L30">
-        <v>5.05</v>
       </c>
       <c r="M30">
         <v>1.3</v>
@@ -4815,10 +4815,10 @@
         <v>4.5</v>
       </c>
       <c r="S30">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U30">
         <v>1.7</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
         <v>45382</v>
@@ -4901,7 +4901,7 @@
         <v>72</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>114</v>
@@ -4910,120 +4910,120 @@
         <v>168</v>
       </c>
       <c r="G31">
+        <v>3.75</v>
+      </c>
+      <c r="H31">
+        <v>1.95</v>
+      </c>
+      <c r="I31">
+        <v>3.4</v>
+      </c>
+      <c r="J31">
+        <v>2.41</v>
+      </c>
+      <c r="K31">
+        <v>2.7</v>
+      </c>
+      <c r="L31">
+        <v>3.1</v>
+      </c>
+      <c r="M31">
+        <v>1.57</v>
+      </c>
+      <c r="N31">
+        <v>2.25</v>
+      </c>
+      <c r="O31">
+        <v>1.1</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>1.5</v>
+      </c>
+      <c r="R31">
+        <v>2.4</v>
+      </c>
+      <c r="S31">
+        <v>2.31</v>
+      </c>
+      <c r="T31">
+        <v>1.48</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>1.73</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>1.3</v>
+      </c>
+      <c r="Y31">
+        <v>1.4</v>
+      </c>
+      <c r="Z31">
+        <v>1.81</v>
+      </c>
+      <c r="AA31">
+        <v>1.31</v>
+      </c>
+      <c r="AB31">
+        <v>1.4</v>
+      </c>
+      <c r="AC31">
+        <v>1.4</v>
+      </c>
+      <c r="AD31">
+        <v>2.8</v>
+      </c>
+      <c r="AE31">
+        <v>2</v>
+      </c>
+      <c r="AF31">
+        <v>7.5</v>
+      </c>
+      <c r="AG31">
+        <v>2.05</v>
+      </c>
+      <c r="AH31">
+        <v>1.3</v>
+      </c>
+      <c r="AI31">
+        <v>3.05</v>
+      </c>
+      <c r="AJ31">
+        <v>1.61</v>
+      </c>
+      <c r="AK31">
         <v>2.3</v>
       </c>
-      <c r="H31">
-        <v>2.38</v>
-      </c>
-      <c r="I31">
-        <v>4.75</v>
-      </c>
-      <c r="J31">
-        <v>1.54</v>
-      </c>
-      <c r="K31">
-        <v>4.23</v>
-      </c>
-      <c r="L31">
-        <v>5.16</v>
-      </c>
-      <c r="M31">
-        <v>1.33</v>
-      </c>
-      <c r="N31">
-        <v>3.25</v>
-      </c>
-      <c r="O31">
-        <v>1.05</v>
-      </c>
-      <c r="P31">
-        <v>16.5</v>
-      </c>
-      <c r="Q31">
-        <v>1.22</v>
-      </c>
-      <c r="R31">
-        <v>4.33</v>
-      </c>
-      <c r="S31">
-        <v>1.61</v>
-      </c>
-      <c r="T31">
-        <v>2.33</v>
-      </c>
-      <c r="U31">
-        <v>1.67</v>
-      </c>
-      <c r="V31">
-        <v>2.1</v>
-      </c>
-      <c r="W31">
-        <v>1.19</v>
-      </c>
-      <c r="X31">
+      <c r="AL31">
+        <v>2</v>
+      </c>
+      <c r="AM31">
+        <v>1.8</v>
+      </c>
+      <c r="AN31">
+        <v>2.49</v>
+      </c>
+      <c r="AO31">
+        <v>1.53</v>
+      </c>
+      <c r="AP31">
+        <v>3.5</v>
+      </c>
+      <c r="AQ31">
         <v>1.24</v>
-      </c>
-      <c r="Y31">
-        <v>2.1</v>
-      </c>
-      <c r="Z31">
-        <v>2.5</v>
-      </c>
-      <c r="AA31">
-        <v>1.07</v>
-      </c>
-      <c r="AB31">
-        <v>1.56</v>
-      </c>
-      <c r="AC31">
-        <v>1.17</v>
-      </c>
-      <c r="AD31">
-        <v>2.73</v>
-      </c>
-      <c r="AE31">
-        <v>1.68</v>
-      </c>
-      <c r="AF31">
-        <v>8</v>
-      </c>
-      <c r="AG31">
-        <v>2.5</v>
-      </c>
-      <c r="AH31">
-        <v>1.2</v>
-      </c>
-      <c r="AI31">
-        <v>3.7</v>
-      </c>
-      <c r="AJ31">
-        <v>1.38</v>
-      </c>
-      <c r="AK31">
-        <v>2.65</v>
-      </c>
-      <c r="AL31">
-        <v>1.67</v>
-      </c>
-      <c r="AM31">
-        <v>2.04</v>
-      </c>
-      <c r="AN31">
-        <v>2.08</v>
-      </c>
-      <c r="AO31">
-        <v>1.64</v>
-      </c>
-      <c r="AP31">
-        <v>2.65</v>
-      </c>
-      <c r="AQ31">
-        <v>1.38</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2">
         <v>45382</v>
@@ -5032,7 +5032,7 @@
         <v>72</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>115</v>
@@ -5041,115 +5041,115 @@
         <v>169</v>
       </c>
       <c r="G32">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="H32">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="I32">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J32">
-        <v>2.37</v>
+        <v>1.54</v>
       </c>
       <c r="K32">
+        <v>4.1</v>
+      </c>
+      <c r="L32">
+        <v>4.8</v>
+      </c>
+      <c r="M32">
+        <v>1.33</v>
+      </c>
+      <c r="N32">
+        <v>3.25</v>
+      </c>
+      <c r="O32">
+        <v>1.05</v>
+      </c>
+      <c r="P32">
+        <v>16.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.22</v>
+      </c>
+      <c r="R32">
+        <v>4.33</v>
+      </c>
+      <c r="S32">
+        <v>1.55</v>
+      </c>
+      <c r="T32">
+        <v>2.19</v>
+      </c>
+      <c r="U32">
+        <v>1.67</v>
+      </c>
+      <c r="V32">
+        <v>2.1</v>
+      </c>
+      <c r="W32">
+        <v>1.19</v>
+      </c>
+      <c r="X32">
+        <v>1.24</v>
+      </c>
+      <c r="Y32">
+        <v>2.1</v>
+      </c>
+      <c r="Z32">
+        <v>2.5</v>
+      </c>
+      <c r="AA32">
+        <v>1.07</v>
+      </c>
+      <c r="AB32">
+        <v>1.56</v>
+      </c>
+      <c r="AC32">
+        <v>1.17</v>
+      </c>
+      <c r="AD32">
+        <v>2.73</v>
+      </c>
+      <c r="AE32">
+        <v>1.68</v>
+      </c>
+      <c r="AF32">
+        <v>8</v>
+      </c>
+      <c r="AG32">
+        <v>2.5</v>
+      </c>
+      <c r="AH32">
+        <v>1.2</v>
+      </c>
+      <c r="AI32">
+        <v>3.7</v>
+      </c>
+      <c r="AJ32">
+        <v>1.38</v>
+      </c>
+      <c r="AK32">
         <v>2.65</v>
       </c>
-      <c r="L32">
-        <v>3.02</v>
-      </c>
-      <c r="M32">
-        <v>1.57</v>
-      </c>
-      <c r="N32">
-        <v>2.25</v>
-      </c>
-      <c r="O32">
-        <v>1.1</v>
-      </c>
-      <c r="P32">
-        <v>7</v>
-      </c>
-      <c r="Q32">
-        <v>1.5</v>
-      </c>
-      <c r="R32">
-        <v>2.5</v>
-      </c>
-      <c r="S32">
-        <v>2.43</v>
-      </c>
-      <c r="T32">
-        <v>1.5</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.73</v>
-      </c>
-      <c r="W32">
-        <v>1.5</v>
-      </c>
-      <c r="X32">
-        <v>1.3</v>
-      </c>
-      <c r="Y32">
-        <v>1.4</v>
-      </c>
-      <c r="Z32">
-        <v>1.81</v>
-      </c>
-      <c r="AA32">
-        <v>1.31</v>
-      </c>
-      <c r="AB32">
-        <v>1.4</v>
-      </c>
-      <c r="AC32">
-        <v>1.4</v>
-      </c>
-      <c r="AD32">
-        <v>2.8</v>
-      </c>
-      <c r="AE32">
-        <v>2</v>
-      </c>
-      <c r="AF32">
-        <v>7.5</v>
-      </c>
-      <c r="AG32">
-        <v>2.05</v>
-      </c>
-      <c r="AH32">
-        <v>1.3</v>
-      </c>
-      <c r="AI32">
-        <v>3.05</v>
-      </c>
-      <c r="AJ32">
-        <v>1.61</v>
-      </c>
-      <c r="AK32">
-        <v>2.3</v>
-      </c>
       <c r="AL32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AM32">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="AN32">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="AO32">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="AP32">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5181,13 +5181,13 @@
         <v>4.75</v>
       </c>
       <c r="J33">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="K33">
         <v>2.75</v>
       </c>
       <c r="L33">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
         <v>1.77</v>
@@ -5202,13 +5202,13 @@
         <v>5</v>
       </c>
       <c r="Q33">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="S33">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T33">
         <v>1.29</v>
@@ -5312,13 +5312,13 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L34">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="M34">
         <v>1.33</v>
@@ -5339,10 +5339,10 @@
         <v>4.25</v>
       </c>
       <c r="S34">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="T34">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U34">
         <v>1.91</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
         <v>45382</v>
@@ -5434,22 +5434,22 @@
         <v>172</v>
       </c>
       <c r="G35">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="H35">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I35">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>2.84</v>
+        <v>2.18</v>
       </c>
       <c r="K35">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L35">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="M35">
         <v>1.4</v>
@@ -5458,96 +5458,96 @@
         <v>2.75</v>
       </c>
       <c r="O35">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q35">
+        <v>1.33</v>
+      </c>
+      <c r="R35">
+        <v>3.3</v>
+      </c>
+      <c r="S35">
+        <v>2.09</v>
+      </c>
+      <c r="T35">
+        <v>1.54</v>
+      </c>
+      <c r="U35">
+        <v>1.8</v>
+      </c>
+      <c r="V35">
+        <v>1.95</v>
+      </c>
+      <c r="W35">
         <v>1.3</v>
       </c>
-      <c r="R35">
-        <v>3.4</v>
-      </c>
-      <c r="S35">
+      <c r="X35">
+        <v>1.28</v>
+      </c>
+      <c r="Y35">
+        <v>1.78</v>
+      </c>
+      <c r="Z35">
+        <v>2.31</v>
+      </c>
+      <c r="AA35">
+        <v>2.15</v>
+      </c>
+      <c r="AB35">
+        <v>1.87</v>
+      </c>
+      <c r="AC35">
+        <v>1.56</v>
+      </c>
+      <c r="AD35">
+        <v>3.43</v>
+      </c>
+      <c r="AE35">
+        <v>1.7</v>
+      </c>
+      <c r="AF35">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG35">
+        <v>2.56</v>
+      </c>
+      <c r="AH35">
+        <v>1.32</v>
+      </c>
+      <c r="AI35">
+        <v>3.1</v>
+      </c>
+      <c r="AJ35">
         <v>1.72</v>
       </c>
-      <c r="T35">
-        <v>1.9</v>
-      </c>
-      <c r="U35">
-        <v>1.75</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>1.68</v>
-      </c>
-      <c r="X35">
+      <c r="AK35">
+        <v>2.02</v>
+      </c>
+      <c r="AL35">
+        <v>2.2</v>
+      </c>
+      <c r="AM35">
+        <v>1.61</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>1.35</v>
+      </c>
+      <c r="AP35">
+        <v>3.6</v>
+      </c>
+      <c r="AQ35">
         <v>1.25</v>
-      </c>
-      <c r="Y35">
-        <v>1.36</v>
-      </c>
-      <c r="Z35">
-        <v>2.18</v>
-      </c>
-      <c r="AA35">
-        <v>2.27</v>
-      </c>
-      <c r="AB35">
-        <v>1.68</v>
-      </c>
-      <c r="AC35">
-        <v>1.53</v>
-      </c>
-      <c r="AD35">
-        <v>3.21</v>
-      </c>
-      <c r="AE35">
-        <v>2</v>
-      </c>
-      <c r="AF35">
-        <v>8</v>
-      </c>
-      <c r="AG35">
-        <v>2</v>
-      </c>
-      <c r="AH35">
-        <v>1.26</v>
-      </c>
-      <c r="AI35">
-        <v>3.34</v>
-      </c>
-      <c r="AJ35">
-        <v>1.54</v>
-      </c>
-      <c r="AK35">
-        <v>2.41</v>
-      </c>
-      <c r="AL35">
-        <v>1.88</v>
-      </c>
-      <c r="AM35">
-        <v>1.92</v>
-      </c>
-      <c r="AN35">
-        <v>2.39</v>
-      </c>
-      <c r="AO35">
-        <v>1.55</v>
-      </c>
-      <c r="AP35">
-        <v>3.2</v>
-      </c>
-      <c r="AQ35">
-        <v>1.28</v>
       </c>
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
         <v>45382</v>
@@ -5565,22 +5565,22 @@
         <v>173</v>
       </c>
       <c r="G36">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="H36">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J36">
-        <v>2.28</v>
+        <v>2.87</v>
       </c>
       <c r="K36">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="L36">
-        <v>3.29</v>
+        <v>2.07</v>
       </c>
       <c r="M36">
         <v>1.4</v>
@@ -5589,91 +5589,91 @@
         <v>2.75</v>
       </c>
       <c r="O36">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="S36">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="T36">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W36">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="X36">
+        <v>1.25</v>
+      </c>
+      <c r="Y36">
+        <v>1.36</v>
+      </c>
+      <c r="Z36">
+        <v>2.18</v>
+      </c>
+      <c r="AA36">
+        <v>2.27</v>
+      </c>
+      <c r="AB36">
+        <v>1.68</v>
+      </c>
+      <c r="AC36">
+        <v>1.53</v>
+      </c>
+      <c r="AD36">
+        <v>3.21</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <v>8</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>1.26</v>
+      </c>
+      <c r="AI36">
+        <v>3.34</v>
+      </c>
+      <c r="AJ36">
+        <v>1.54</v>
+      </c>
+      <c r="AK36">
+        <v>2.41</v>
+      </c>
+      <c r="AL36">
+        <v>1.88</v>
+      </c>
+      <c r="AM36">
+        <v>1.92</v>
+      </c>
+      <c r="AN36">
+        <v>2.39</v>
+      </c>
+      <c r="AO36">
+        <v>1.55</v>
+      </c>
+      <c r="AP36">
+        <v>3.2</v>
+      </c>
+      <c r="AQ36">
         <v>1.28</v>
-      </c>
-      <c r="Y36">
-        <v>1.78</v>
-      </c>
-      <c r="Z36">
-        <v>2.31</v>
-      </c>
-      <c r="AA36">
-        <v>2.15</v>
-      </c>
-      <c r="AB36">
-        <v>1.87</v>
-      </c>
-      <c r="AC36">
-        <v>1.56</v>
-      </c>
-      <c r="AD36">
-        <v>3.43</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>1.72</v>
-      </c>
-      <c r="AK36">
-        <v>2.02</v>
-      </c>
-      <c r="AL36">
-        <v>2.2</v>
-      </c>
-      <c r="AM36">
-        <v>1.61</v>
-      </c>
-      <c r="AN36">
-        <v>3</v>
-      </c>
-      <c r="AO36">
-        <v>1.35</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5705,13 +5705,13 @@
         <v>2.88</v>
       </c>
       <c r="J37">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L37">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="M37">
         <v>1.36</v>
@@ -5732,10 +5732,10 @@
         <v>3.6</v>
       </c>
       <c r="S37">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T37">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="U37">
         <v>1.7</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2">
         <v>45382</v>
@@ -5836,13 +5836,13 @@
         <v>7.5</v>
       </c>
       <c r="J38">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="K38">
-        <v>5.89</v>
+        <v>5.45</v>
       </c>
       <c r="L38">
-        <v>8.550000000000001</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <v>1.22</v>
@@ -5967,13 +5967,13 @@
         <v>4.33</v>
       </c>
       <c r="J39">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="K39">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="L39">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="M39">
         <v>1.33</v>
@@ -5994,10 +5994,10 @@
         <v>4.15</v>
       </c>
       <c r="S39">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="U39">
         <v>1.67</v>
@@ -6098,13 +6098,13 @@
         <v>5.5</v>
       </c>
       <c r="J40">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K40">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L40">
-        <v>4.07</v>
+        <v>3.85</v>
       </c>
       <c r="M40">
         <v>1.39</v>
@@ -6125,10 +6125,10 @@
         <v>3.3</v>
       </c>
       <c r="S40">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="T40">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="U40">
         <v>1.95</v>
@@ -6194,15 +6194,15 @@
         <v>1.42</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2">
         <v>45382</v>
@@ -6229,13 +6229,13 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="K41">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="L41">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="M41">
         <v>1.44</v>
@@ -6256,10 +6256,10 @@
         <v>3.25</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T41">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="U41">
         <v>2</v>
@@ -6360,13 +6360,13 @@
         <v>1.8</v>
       </c>
       <c r="J42">
-        <v>7.53</v>
+        <v>7.5</v>
       </c>
       <c r="K42">
-        <v>4.72</v>
+        <v>5.05</v>
       </c>
       <c r="L42">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M42">
         <v>1.25</v>
@@ -6491,13 +6491,13 @@
         <v>3.6</v>
       </c>
       <c r="J43">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K43">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L43">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
         <v>1.36</v>
@@ -6518,10 +6518,10 @@
         <v>3.75</v>
       </c>
       <c r="S43">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T43">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="U43">
         <v>1.7</v>
@@ -6622,13 +6622,13 @@
         <v>5.5</v>
       </c>
       <c r="J44">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="K44">
-        <v>3.96</v>
+        <v>3.8</v>
       </c>
       <c r="L44">
-        <v>5.96</v>
+        <v>5.65</v>
       </c>
       <c r="M44">
         <v>1.4</v>
@@ -6649,10 +6649,10 @@
         <v>3.35</v>
       </c>
       <c r="S44">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="T44">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -6753,13 +6753,13 @@
         <v>3.2</v>
       </c>
       <c r="J45">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="K45">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="L45">
-        <v>2.31</v>
+        <v>2.52</v>
       </c>
       <c r="M45">
         <v>1.57</v>
@@ -6774,16 +6774,16 @@
         <v>6.1</v>
       </c>
       <c r="Q45">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R45">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="S45">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="T45">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="U45">
         <v>2.1</v>
@@ -6884,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="K46">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L46">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="T46">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2">
         <v>45382</v>
@@ -7015,13 +7015,13 @@
         <v>4.75</v>
       </c>
       <c r="J47">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K47">
-        <v>4.11</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>5.09</v>
+        <v>4.95</v>
       </c>
       <c r="M47">
         <v>1.3</v>
@@ -7042,10 +7042,10 @@
         <v>4.37</v>
       </c>
       <c r="S47">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T47">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="U47">
         <v>1.7</v>
@@ -7146,13 +7146,13 @@
         <v>4.33</v>
       </c>
       <c r="J48">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="M48">
         <v>1.4</v>
@@ -7173,10 +7173,10 @@
         <v>3.6</v>
       </c>
       <c r="S48">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="T48">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="U48">
         <v>1.75</v>
@@ -7209,13 +7209,13 @@
         <v>3.61</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AH48">
         <v>1.4</v>
@@ -7236,16 +7236,16 @@
         <v>1.67</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="49" spans="1:43">
@@ -7277,13 +7277,13 @@
         <v>6.5</v>
       </c>
       <c r="J49">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="K49">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="L49">
-        <v>5.85</v>
+        <v>5.55</v>
       </c>
       <c r="M49">
         <v>1.4</v>
@@ -7304,10 +7304,10 @@
         <v>3.6</v>
       </c>
       <c r="S49">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="T49">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="U49">
         <v>2.05</v>
@@ -7340,13 +7340,13 @@
         <v>2.8</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AH49">
         <v>1.42</v>
@@ -7367,16 +7367,16 @@
         <v>1.61</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AP49">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="50" spans="1:43">
@@ -7408,13 +7408,13 @@
         <v>2.65</v>
       </c>
       <c r="J50">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K50">
-        <v>2.78</v>
+        <v>2.87</v>
       </c>
       <c r="L50">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="M50">
         <v>1.41</v>
@@ -7435,10 +7435,10 @@
         <v>3.1</v>
       </c>
       <c r="S50">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="U50">
         <v>1.8</v>
@@ -7539,10 +7539,10 @@
         <v>2.63</v>
       </c>
       <c r="J51">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L51">
         <v>2.15</v>
@@ -7566,10 +7566,10 @@
         <v>4.75</v>
       </c>
       <c r="S51">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="T51">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="U51">
         <v>1.53</v>
@@ -7670,13 +7670,13 @@
         <v>5.5</v>
       </c>
       <c r="J52">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="K52">
         <v>4.15</v>
       </c>
       <c r="L52">
-        <v>5.66</v>
+        <v>5.6</v>
       </c>
       <c r="M52">
         <v>1.33</v>
@@ -7697,10 +7697,10 @@
         <v>3.92</v>
       </c>
       <c r="S52">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T52">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>1.8</v>
@@ -7801,13 +7801,13 @@
         <v>3.4</v>
       </c>
       <c r="J53">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="K53">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="L53">
-        <v>2.84</v>
+        <v>2.55</v>
       </c>
       <c r="M53">
         <v>1.52</v>
@@ -7828,10 +7828,10 @@
         <v>2.54</v>
       </c>
       <c r="S53">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T53">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U53">
         <v>2</v>
@@ -7873,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ53">
         <v>1.5</v>
@@ -7897,10 +7897,10 @@
         <v>1.58</v>
       </c>
       <c r="AP53">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -7932,10 +7932,10 @@
         <v>4.75</v>
       </c>
       <c r="J54">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K54">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L54">
         <v>4.2</v>
@@ -8004,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ54">
         <v>1.58</v>
@@ -8028,10 +8028,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -8063,13 +8063,13 @@
         <v>3.6</v>
       </c>
       <c r="J55">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="K55">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="L55">
-        <v>3.24</v>
+        <v>2.88</v>
       </c>
       <c r="M55">
         <v>1.51</v>
@@ -8090,10 +8090,10 @@
         <v>2.6</v>
       </c>
       <c r="S55">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T55">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U55">
         <v>2</v>
@@ -8135,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ55">
         <v>1.57</v>
@@ -8159,10 +8159,10 @@
         <v>1.51</v>
       </c>
       <c r="AP55">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
   <si>
     <t>League</t>
   </si>
@@ -163,24 +163,24 @@
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
+    <t>England Premier League</t>
+  </si>
+  <si>
     <t>Czech Republic First League</t>
   </si>
   <si>
-    <t>England Premier League</t>
-  </si>
-  <si>
     <t>Bulgaria First League</t>
   </si>
   <si>
@@ -199,9 +199,6 @@
     <t>Portugal Liga NOS</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
     <t>05:30:00</t>
   </si>
   <si>
@@ -268,15 +265,12 @@
     <t>16:00:00</t>
   </si>
   <si>
-    <t>16:30:00</t>
+    <t>Sturm Graz II</t>
   </si>
   <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>Sturm Graz II</t>
-  </si>
-  <si>
     <t>PEC Zwolle</t>
   </si>
   <si>
@@ -292,63 +286,63 @@
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>St. Pauli</t>
+  </si>
+  <si>
     <t>Wehen Wiesbaden</t>
   </si>
   <si>
     <t>Greuther Fürth</t>
   </si>
   <si>
-    <t>St. Pauli</t>
-  </si>
-  <si>
-    <t>Schalke 04</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
+    <t>Celta de Vigo</t>
+  </si>
+  <si>
+    <t>AD Alcorcón</t>
   </si>
   <si>
     <t>Randers</t>
   </si>
   <si>
-    <t>AD Alcorcón</t>
-  </si>
-  <si>
-    <t>Celta de Vigo</t>
+    <t>LASK Linz</t>
   </si>
   <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
     <t>Feyenoord</t>
   </si>
   <si>
     <t>Twente</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Hradec Králové</t>
+  </si>
+  <si>
+    <t>Mladá Boleslav</t>
   </si>
   <si>
     <t>Baník Ostrava</t>
   </si>
   <si>
-    <t>Hradec Králové</t>
-  </si>
-  <si>
-    <t>Mladá Boleslav</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
@@ -358,12 +352,12 @@
     <t>Viborg</t>
   </si>
   <si>
+    <t>Girona FC</t>
+  </si>
+  <si>
     <t>Racing Club de Ferrol</t>
   </si>
   <si>
-    <t>Girona FC</t>
-  </si>
-  <si>
     <t>Real Zaragoza</t>
   </si>
   <si>
@@ -379,30 +373,30 @@
     <t>Strasbourg</t>
   </si>
   <si>
+    <t>Spartak Trnava</t>
+  </si>
+  <si>
     <t>Stuttgart</t>
   </si>
   <si>
     <t>Manchester City</t>
   </si>
   <si>
-    <t>Spartak Trnava</t>
-  </si>
-  <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>České Budějovice</t>
   </si>
   <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Real Oviedo</t>
+  </si>
+  <si>
     <t>Sint-Truiden</t>
   </si>
   <si>
-    <t>Real Oviedo</t>
-  </si>
-  <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
     <t>FC Vizela</t>
   </si>
   <si>
@@ -424,21 +418,12 @@
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Ismaily SC</t>
-  </si>
-  <si>
-    <t>Ceramica Cleopatra</t>
-  </si>
-  <si>
-    <t>El Gounah</t>
+    <t>Admira</t>
   </si>
   <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Admira</t>
-  </si>
-  <si>
     <t>Ajax</t>
   </si>
   <si>
@@ -454,63 +439,63 @@
     <t>Oţelul Galaţi</t>
   </si>
   <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
+    <t>Hannover 96</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
     <t>Osnabrück</t>
   </si>
   <si>
     <t>Hamburger SV</t>
   </si>
   <si>
-    <t>Paderborn</t>
-  </si>
-  <si>
-    <t>Karlsruher SC</t>
-  </si>
-  <si>
-    <t>Hannover 96</t>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>SD Amorebieta</t>
   </si>
   <si>
     <t>Lyngby</t>
   </si>
   <si>
-    <t>SD Amorebieta</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
+    <t>Austria Klagenfurt</t>
   </si>
   <si>
     <t>Rapid Wien</t>
   </si>
   <si>
-    <t>Austria Klagenfurt</t>
-  </si>
-  <si>
     <t>Utrecht</t>
   </si>
   <si>
     <t>Heracles</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nantes</t>
+    <t>Karviná</t>
+  </si>
+  <si>
+    <t>Zlín</t>
   </si>
   <si>
     <t>Teplice</t>
   </si>
   <si>
-    <t>Karviná</t>
-  </si>
-  <si>
-    <t>Zlín</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
     <t>Cherno More</t>
   </si>
   <si>
@@ -520,12 +505,12 @@
     <t>Hvidovre</t>
   </si>
   <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
     <t>Elche CF</t>
   </si>
   <si>
-    <t>Real Betis</t>
-  </si>
-  <si>
     <t>CD Tenerife</t>
   </si>
   <si>
@@ -541,30 +526,30 @@
     <t>Rennes</t>
   </si>
   <si>
+    <t>Žilina</t>
+  </si>
+  <si>
     <t>Heidenheim</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Žilina</t>
-  </si>
-  <si>
     <t>Beroe</t>
   </si>
   <si>
     <t>Sparta Praha</t>
   </si>
   <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Villarreal II</t>
+  </si>
+  <si>
     <t>KVC Westerlo</t>
   </si>
   <si>
-    <t>Villarreal II</t>
-  </si>
-  <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
     <t>Casa Pia</t>
   </si>
   <si>
@@ -584,15 +569,6 @@
   </si>
   <si>
     <t>Athletic Club Bilbao</t>
-  </si>
-  <si>
-    <t>Smouha SC</t>
-  </si>
-  <si>
-    <t>Masr</t>
-  </si>
-  <si>
-    <t>Al Mokawloon</t>
   </si>
 </sst>
 </file>
@@ -954,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ55"/>
+  <dimension ref="A1:AQ52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,34 +1075,34 @@
         <v>45382</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I2">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="J2">
-        <v>2.49</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L2">
-        <v>2.47</v>
+        <v>1.7</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -1135,91 +1111,91 @@
         <v>3.25</v>
       </c>
       <c r="O2">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P2">
         <v>10.5</v>
       </c>
       <c r="Q2">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="R2">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="S2">
+        <v>1.7</v>
+      </c>
+      <c r="T2">
+        <v>1.97</v>
+      </c>
+      <c r="U2">
+        <v>1.73</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>1.9</v>
+      </c>
+      <c r="X2">
+        <v>1.2</v>
+      </c>
+      <c r="Y2">
+        <v>1.2</v>
+      </c>
+      <c r="Z2">
+        <v>0.64</v>
+      </c>
+      <c r="AA2">
+        <v>1.09</v>
+      </c>
+      <c r="AB2">
+        <v>1.17</v>
+      </c>
+      <c r="AC2">
+        <v>1.49</v>
+      </c>
+      <c r="AD2">
+        <v>2.66</v>
+      </c>
+      <c r="AE2">
+        <v>2.84</v>
+      </c>
+      <c r="AF2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>1.55</v>
+      </c>
+      <c r="AH2">
+        <v>1.2</v>
+      </c>
+      <c r="AI2">
+        <v>3.9</v>
+      </c>
+      <c r="AJ2">
+        <v>1.39</v>
+      </c>
+      <c r="AK2">
+        <v>2.67</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>2.05</v>
+      </c>
+      <c r="AN2">
+        <v>2.17</v>
+      </c>
+      <c r="AO2">
         <v>1.67</v>
       </c>
-      <c r="T2">
-        <v>1.99</v>
-      </c>
-      <c r="U2">
-        <v>1.67</v>
-      </c>
-      <c r="V2">
-        <v>2.1</v>
-      </c>
-      <c r="W2">
-        <v>1.7</v>
-      </c>
-      <c r="X2">
-        <v>1.22</v>
-      </c>
-      <c r="Y2">
-        <v>1.35</v>
-      </c>
-      <c r="Z2">
-        <v>1.44</v>
-      </c>
-      <c r="AA2">
-        <v>1.5</v>
-      </c>
-      <c r="AB2">
-        <v>1.18</v>
-      </c>
-      <c r="AC2">
-        <v>1.5</v>
-      </c>
-      <c r="AD2">
-        <v>2.68</v>
-      </c>
-      <c r="AE2">
-        <v>2.53</v>
-      </c>
-      <c r="AF2">
-        <v>9.1</v>
-      </c>
-      <c r="AG2">
-        <v>1.67</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>1.35</v>
-      </c>
-      <c r="AK2">
-        <v>2.84</v>
-      </c>
-      <c r="AL2">
-        <v>2.1</v>
-      </c>
-      <c r="AM2">
-        <v>2.14</v>
-      </c>
-      <c r="AN2">
-        <v>2.06</v>
-      </c>
-      <c r="AO2">
-        <v>1.73</v>
-      </c>
       <c r="AP2">
-        <v>2.67</v>
+        <v>2.79</v>
       </c>
       <c r="AQ2">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1230,34 +1206,34 @@
         <v>45382</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G3">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="H3">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>4.05</v>
+        <v>2.9</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M3">
         <v>1.33</v>
@@ -1266,22 +1242,22 @@
         <v>3.25</v>
       </c>
       <c r="O3">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P3">
         <v>10.5</v>
       </c>
       <c r="Q3">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="R3">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="S3">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="T3">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1290,67 +1266,67 @@
         <v>2</v>
       </c>
       <c r="W3">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X3">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y3">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="Z3">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AA3">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="AB3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AC3">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AD3">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AE3">
+        <v>2.53</v>
+      </c>
+      <c r="AF3">
+        <v>9.1</v>
+      </c>
+      <c r="AG3">
+        <v>1.67</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1.35</v>
+      </c>
+      <c r="AK3">
         <v>2.84</v>
       </c>
-      <c r="AF3">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG3">
-        <v>1.55</v>
-      </c>
-      <c r="AH3">
-        <v>1.2</v>
-      </c>
-      <c r="AI3">
-        <v>3.9</v>
-      </c>
-      <c r="AJ3">
+      <c r="AL3">
+        <v>2.1</v>
+      </c>
+      <c r="AM3">
+        <v>2.14</v>
+      </c>
+      <c r="AN3">
+        <v>2.06</v>
+      </c>
+      <c r="AO3">
+        <v>1.73</v>
+      </c>
+      <c r="AP3">
+        <v>2.67</v>
+      </c>
+      <c r="AQ3">
         <v>1.39</v>
-      </c>
-      <c r="AK3">
-        <v>2.67</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>2.05</v>
-      </c>
-      <c r="AN3">
-        <v>2.17</v>
-      </c>
-      <c r="AO3">
-        <v>1.67</v>
-      </c>
-      <c r="AP3">
-        <v>2.79</v>
-      </c>
-      <c r="AQ3">
-        <v>1.36</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1361,16 +1337,16 @@
         <v>45382</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G4">
         <v>4.33</v>
@@ -1385,10 +1361,10 @@
         <v>4.2</v>
       </c>
       <c r="K4">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="M4">
         <v>1.25</v>
@@ -1409,10 +1385,10 @@
         <v>5.31</v>
       </c>
       <c r="S4">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="T4">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U4">
         <v>1.53</v>
@@ -1430,10 +1406,10 @@
         <v>1.25</v>
       </c>
       <c r="Z4">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AA4">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AB4">
         <v>1.48</v>
@@ -1492,16 +1468,16 @@
         <v>45382</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>2.88</v>
@@ -1513,13 +1489,13 @@
         <v>3.25</v>
       </c>
       <c r="J5">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1540,16 +1516,16 @@
         <v>4</v>
       </c>
       <c r="S5">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U5">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>1.44</v>
@@ -1561,10 +1537,10 @@
         <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AA5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AB5">
         <v>1.51</v>
@@ -1623,16 +1599,16 @@
         <v>45382</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1644,13 +1620,13 @@
         <v>1.62</v>
       </c>
       <c r="J6">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="L6">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="M6">
         <v>1.25</v>
@@ -1674,7 +1650,7 @@
         <v>1.45</v>
       </c>
       <c r="T6">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1692,10 +1668,10 @@
         <v>1.02</v>
       </c>
       <c r="Z6">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AA6">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AB6">
         <v>1.18</v>
@@ -1754,16 +1730,16 @@
         <v>45382</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G7">
         <v>4.5</v>
@@ -1775,13 +1751,13 @@
         <v>2.63</v>
       </c>
       <c r="J7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K7">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="M7">
         <v>1.44</v>
@@ -1802,10 +1778,10 @@
         <v>3.04</v>
       </c>
       <c r="S7">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T7">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="U7">
         <v>1.95</v>
@@ -1823,10 +1799,10 @@
         <v>1.26</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AA7">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AB7">
         <v>1.18</v>
@@ -1885,16 +1861,16 @@
         <v>45382</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G8">
         <v>2.95</v>
@@ -1909,10 +1885,10 @@
         <v>2.15</v>
       </c>
       <c r="K8">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
         <v>1.5</v>
@@ -1933,10 +1909,10 @@
         <v>2.75</v>
       </c>
       <c r="S8">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T8">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -1954,10 +1930,10 @@
         <v>1.53</v>
       </c>
       <c r="Z8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AA8">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AB8">
         <v>1.62</v>
@@ -2016,34 +1992,34 @@
         <v>45382</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G9">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H9">
+        <v>2.38</v>
+      </c>
+      <c r="I9">
+        <v>3.2</v>
+      </c>
+      <c r="J9">
         <v>2.3</v>
       </c>
-      <c r="I9">
-        <v>3.75</v>
-      </c>
-      <c r="J9">
-        <v>1.92</v>
-      </c>
       <c r="K9">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M9">
         <v>1.3</v>
@@ -2058,46 +2034,46 @@
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R9">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="S9">
+        <v>1.57</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
         <v>1.5</v>
       </c>
-      <c r="T9">
-        <v>2.26</v>
-      </c>
-      <c r="U9">
-        <v>1.57</v>
-      </c>
       <c r="V9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X9">
         <v>1.22</v>
       </c>
       <c r="Y9">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="Z9">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AA9">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="AC9">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="AD9">
-        <v>2.21</v>
+        <v>3.11</v>
       </c>
       <c r="AE9">
         <v>1.82</v>
@@ -2106,37 +2082,37 @@
         <v>8.5</v>
       </c>
       <c r="AG9">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="AH9">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AI9">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AJ9">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AK9">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AL9">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AM9">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AN9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AO9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AP9">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2147,88 +2123,88 @@
         <v>45382</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G10">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="H10">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I10">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="J10">
-        <v>2.79</v>
+        <v>2.3</v>
       </c>
       <c r="K10">
         <v>3.7</v>
       </c>
       <c r="L10">
-        <v>2.07</v>
+        <v>2.7</v>
       </c>
       <c r="M10">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="R10">
         <v>4.75</v>
       </c>
       <c r="S10">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="T10">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="U10">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V10">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W10">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="X10">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="Y10">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA10">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AB10">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="AC10">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AD10">
-        <v>3.21</v>
+        <v>2.82</v>
       </c>
       <c r="AE10">
         <v>1.82</v>
@@ -2240,34 +2216,34 @@
         <v>2.39</v>
       </c>
       <c r="AH10">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AI10">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AJ10">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AK10">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AL10">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AM10">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AN10">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AO10">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AP10">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="AQ10">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2278,16 +2254,16 @@
         <v>45382</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G11">
         <v>2.1</v>
@@ -2299,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="K11">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="L11">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="M11">
         <v>1.29</v>
@@ -2326,10 +2302,10 @@
         <v>4.5</v>
       </c>
       <c r="S11">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T11">
-        <v>2.22</v>
+        <v>2.45</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -2347,10 +2323,10 @@
         <v>2.3</v>
       </c>
       <c r="Z11">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AA11">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AB11">
         <v>1.88</v>
@@ -2409,34 +2385,34 @@
         <v>45382</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G12">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H12">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I12">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="J12">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="K12">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
         <v>1.3</v>
@@ -2451,46 +2427,46 @@
         <v>10</v>
       </c>
       <c r="Q12">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R12">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="S12">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="T12">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="U12">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W12">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X12">
         <v>1.22</v>
       </c>
       <c r="Y12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="Z12">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AB12">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="AC12">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="AD12">
-        <v>3.11</v>
+        <v>2.21</v>
       </c>
       <c r="AE12">
         <v>1.82</v>
@@ -2499,37 +2475,37 @@
         <v>8.5</v>
       </c>
       <c r="AG12">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="AH12">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AI12">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AJ12">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AK12">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AL12">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AM12">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AN12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AO12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AP12">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="AQ12">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2540,88 +2516,88 @@
         <v>45382</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G13">
+        <v>3.25</v>
+      </c>
+      <c r="H13">
+        <v>2.4</v>
+      </c>
+      <c r="I13">
+        <v>2.75</v>
+      </c>
+      <c r="J13">
         <v>2.88</v>
       </c>
-      <c r="H13">
-        <v>2.38</v>
-      </c>
-      <c r="I13">
-        <v>3.2</v>
-      </c>
-      <c r="J13">
-        <v>2.18</v>
-      </c>
       <c r="K13">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L13">
-        <v>2.71</v>
+        <v>2.15</v>
       </c>
       <c r="M13">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O13">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="R13">
         <v>4.75</v>
       </c>
       <c r="S13">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="T13">
-        <v>2.36</v>
+        <v>2.55</v>
       </c>
       <c r="U13">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V13">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W13">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="X13">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y13">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="Z13">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="AA13">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AB13">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="AC13">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="AD13">
-        <v>2.82</v>
+        <v>3.21</v>
       </c>
       <c r="AE13">
         <v>1.82</v>
@@ -2633,34 +2609,34 @@
         <v>2.39</v>
       </c>
       <c r="AH13">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AI13">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ13">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AK13">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AL13">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AM13">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="AO13">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AP13">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="AQ13">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2671,127 +2647,127 @@
         <v>45382</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G14">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I14">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J14">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="K14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N14">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O14">
         <v>1.04</v>
       </c>
       <c r="P14">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q14">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="R14">
-        <v>3.35</v>
+        <v>3.08</v>
       </c>
       <c r="S14">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="T14">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.8</v>
-      </c>
-      <c r="V14">
-        <v>1.95</v>
       </c>
       <c r="W14">
         <v>1.28</v>
       </c>
       <c r="X14">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Y14">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="Z14">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="AA14">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="AB14">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="AC14">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AD14">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
       <c r="AE14">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AF14">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="AG14">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="AH14">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AI14">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="AJ14">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AK14">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="AL14">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AM14">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AN14">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AO14">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AP14">
-        <v>2.31</v>
+        <v>3.05</v>
       </c>
       <c r="AQ14">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2802,16 +2778,16 @@
         <v>45382</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G15">
         <v>2.9</v>
@@ -2823,13 +2799,13 @@
         <v>4.33</v>
       </c>
       <c r="J15">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="K15">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M15">
         <v>1.61</v>
@@ -2844,16 +2820,16 @@
         <v>6.5</v>
       </c>
       <c r="Q15">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="R15">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S15">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="T15">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="U15">
         <v>2.25</v>
@@ -2871,10 +2847,10 @@
         <v>1.68</v>
       </c>
       <c r="Z15">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AA15">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB15">
         <v>1.27</v>
@@ -2933,127 +2909,127 @@
         <v>45382</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G16">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H16">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I16">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J16">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="K16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N16">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O16">
         <v>1.04</v>
       </c>
       <c r="P16">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="Q16">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="R16">
-        <v>3.08</v>
+        <v>3.35</v>
       </c>
       <c r="S16">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
+        <v>1.8</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
       </c>
       <c r="W16">
         <v>1.28</v>
       </c>
       <c r="X16">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="Z16">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="AA16">
-        <v>1.07</v>
+        <v>0.58</v>
       </c>
       <c r="AB16">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AC16">
+        <v>1.13</v>
+      </c>
+      <c r="AD16">
+        <v>2.43</v>
+      </c>
+      <c r="AE16">
+        <v>1.54</v>
+      </c>
+      <c r="AF16">
+        <v>9.9</v>
+      </c>
+      <c r="AG16">
+        <v>2.91</v>
+      </c>
+      <c r="AH16">
         <v>1.12</v>
       </c>
-      <c r="AD16">
-        <v>2.61</v>
-      </c>
-      <c r="AE16">
-        <v>1.46</v>
-      </c>
-      <c r="AF16">
-        <v>8.5</v>
-      </c>
-      <c r="AG16">
-        <v>3.25</v>
-      </c>
-      <c r="AH16">
-        <v>1.28</v>
-      </c>
       <c r="AI16">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="AJ16">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AK16">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AL16">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AM16">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AN16">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="AO16">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AP16">
-        <v>3.05</v>
+        <v>2.31</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3064,46 +3040,46 @@
         <v>45382</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G17">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="H17">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I17">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="J17">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="K17">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L17">
-        <v>1.92</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N17">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>1.04</v>
       </c>
       <c r="P17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q17">
         <v>1.28</v>
@@ -3112,79 +3088,79 @@
         <v>3.6</v>
       </c>
       <c r="S17">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="T17">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
+        <v>1.8</v>
+      </c>
+      <c r="W17">
+        <v>1.14</v>
+      </c>
+      <c r="X17">
+        <v>1.2</v>
+      </c>
+      <c r="Y17">
+        <v>2.35</v>
+      </c>
+      <c r="Z17">
         <v>2</v>
       </c>
-      <c r="W17">
-        <v>1.72</v>
-      </c>
-      <c r="X17">
-        <v>1.25</v>
-      </c>
-      <c r="Y17">
+      <c r="AA17">
+        <v>1.58</v>
+      </c>
+      <c r="AB17">
+        <v>1.51</v>
+      </c>
+      <c r="AC17">
+        <v>1.12</v>
+      </c>
+      <c r="AD17">
+        <v>2.63</v>
+      </c>
+      <c r="AE17">
+        <v>1.51</v>
+      </c>
+      <c r="AF17">
+        <v>8.5</v>
+      </c>
+      <c r="AG17">
+        <v>3.16</v>
+      </c>
+      <c r="AH17">
+        <v>1.21</v>
+      </c>
+      <c r="AI17">
+        <v>3.74</v>
+      </c>
+      <c r="AJ17">
+        <v>1.41</v>
+      </c>
+      <c r="AK17">
+        <v>2.69</v>
+      </c>
+      <c r="AL17">
+        <v>1.82</v>
+      </c>
+      <c r="AM17">
+        <v>1.98</v>
+      </c>
+      <c r="AN17">
+        <v>2.15</v>
+      </c>
+      <c r="AO17">
+        <v>1.68</v>
+      </c>
+      <c r="AP17">
+        <v>2.84</v>
+      </c>
+      <c r="AQ17">
         <v>1.35</v>
-      </c>
-      <c r="Z17">
-        <v>1.73</v>
-      </c>
-      <c r="AA17">
-        <v>1.73</v>
-      </c>
-      <c r="AB17">
-        <v>1.12</v>
-      </c>
-      <c r="AC17">
-        <v>1.67</v>
-      </c>
-      <c r="AD17">
-        <v>2.79</v>
-      </c>
-      <c r="AE17">
-        <v>2.44</v>
-      </c>
-      <c r="AF17">
-        <v>8</v>
-      </c>
-      <c r="AG17">
-        <v>1.75</v>
-      </c>
-      <c r="AH17">
-        <v>1.22</v>
-      </c>
-      <c r="AI17">
-        <v>3.65</v>
-      </c>
-      <c r="AJ17">
-        <v>1.43</v>
-      </c>
-      <c r="AK17">
-        <v>2.62</v>
-      </c>
-      <c r="AL17">
-        <v>1.9</v>
-      </c>
-      <c r="AM17">
-        <v>1.9</v>
-      </c>
-      <c r="AN17">
-        <v>2.17</v>
-      </c>
-      <c r="AO17">
-        <v>1.67</v>
-      </c>
-      <c r="AP17">
-        <v>2.93</v>
-      </c>
-      <c r="AQ17">
-        <v>1.33</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3195,46 +3171,46 @@
         <v>45382</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G18">
+        <v>3.75</v>
+      </c>
+      <c r="H18">
         <v>2.2</v>
       </c>
-      <c r="H18">
-        <v>2.25</v>
-      </c>
       <c r="I18">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="J18">
-        <v>1.61</v>
+        <v>3.1</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>4.3</v>
+        <v>2.05</v>
       </c>
       <c r="M18">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
         <v>1.04</v>
       </c>
       <c r="P18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q18">
         <v>1.28</v>
@@ -3243,79 +3219,79 @@
         <v>3.6</v>
       </c>
       <c r="S18">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="T18">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1.14</v>
+        <v>1.72</v>
       </c>
       <c r="X18">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y18">
-        <v>2.35</v>
+        <v>1.35</v>
       </c>
       <c r="Z18">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="AA18">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AB18">
-        <v>1.51</v>
+        <v>1.12</v>
       </c>
       <c r="AC18">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="AD18">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AE18">
-        <v>1.51</v>
+        <v>2.44</v>
       </c>
       <c r="AF18">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG18">
-        <v>3.16</v>
+        <v>1.75</v>
       </c>
       <c r="AH18">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AI18">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="AJ18">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AK18">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="AL18">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AM18">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AN18">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AO18">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AP18">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AQ18">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3326,16 +3302,16 @@
         <v>45382</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G19">
         <v>1.73</v>
@@ -3347,13 +3323,13 @@
         <v>8</v>
       </c>
       <c r="J19">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="K19">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="L19">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>1.25</v>
@@ -3374,10 +3350,10 @@
         <v>4.87</v>
       </c>
       <c r="S19">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T19">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="U19">
         <v>1.95</v>
@@ -3395,10 +3371,10 @@
         <v>3.75</v>
       </c>
       <c r="Z19">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AA19">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AB19">
         <v>2.36</v>
@@ -3457,16 +3433,16 @@
         <v>45382</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G20">
         <v>1.62</v>
@@ -3481,10 +3457,10 @@
         <v>1.2</v>
       </c>
       <c r="K20">
-        <v>5.95</v>
+        <v>6.5</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20">
         <v>1.22</v>
@@ -3505,10 +3481,10 @@
         <v>6.25</v>
       </c>
       <c r="S20">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T20">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.95</v>
@@ -3526,10 +3502,10 @@
         <v>4.25</v>
       </c>
       <c r="Z20">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AA20">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AB20">
         <v>1.81</v>
@@ -3588,127 +3564,127 @@
         <v>45382</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G21">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="H21">
         <v>2.1</v>
       </c>
       <c r="I21">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J21">
-        <v>2.39</v>
+        <v>1.6</v>
       </c>
       <c r="K21">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L21">
-        <v>2.78</v>
+        <v>5.8</v>
       </c>
       <c r="M21">
+        <v>1.44</v>
+      </c>
+      <c r="N21">
+        <v>2.63</v>
+      </c>
+      <c r="O21">
+        <v>1.08</v>
+      </c>
+      <c r="P21">
+        <v>8.5</v>
+      </c>
+      <c r="Q21">
         <v>1.4</v>
       </c>
-      <c r="N21">
+      <c r="R21">
+        <v>2.95</v>
+      </c>
+      <c r="S21">
+        <v>2.23</v>
+      </c>
+      <c r="T21">
+        <v>1.65</v>
+      </c>
+      <c r="U21">
+        <v>2.05</v>
+      </c>
+      <c r="V21">
+        <v>1.7</v>
+      </c>
+      <c r="W21">
+        <v>1.17</v>
+      </c>
+      <c r="X21">
+        <v>1.25</v>
+      </c>
+      <c r="Y21">
+        <v>2.15</v>
+      </c>
+      <c r="Z21">
+        <v>1.79</v>
+      </c>
+      <c r="AA21">
+        <v>1.23</v>
+      </c>
+      <c r="AB21">
+        <v>1.48</v>
+      </c>
+      <c r="AC21">
+        <v>1.11</v>
+      </c>
+      <c r="AD21">
+        <v>2.59</v>
+      </c>
+      <c r="AE21">
+        <v>1.47</v>
+      </c>
+      <c r="AF21">
+        <v>8</v>
+      </c>
+      <c r="AG21">
+        <v>3.3</v>
+      </c>
+      <c r="AH21">
+        <v>1.38</v>
+      </c>
+      <c r="AI21">
+        <v>2.65</v>
+      </c>
+      <c r="AJ21">
+        <v>1.68</v>
+      </c>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>2.14</v>
+      </c>
+      <c r="AM21">
+        <v>1.6</v>
+      </c>
+      <c r="AN21">
         <v>2.75</v>
       </c>
-      <c r="O21">
-        <v>1.06</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>1.33</v>
-      </c>
-      <c r="R21">
-        <v>3.3</v>
-      </c>
-      <c r="S21">
-        <v>1.97</v>
-      </c>
-      <c r="T21">
-        <v>1.71</v>
-      </c>
-      <c r="U21">
-        <v>1.75</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>1.46</v>
-      </c>
-      <c r="X21">
-        <v>1.31</v>
-      </c>
-      <c r="Y21">
-        <v>1.49</v>
-      </c>
-      <c r="Z21">
-        <v>1.42</v>
-      </c>
-      <c r="AA21">
-        <v>1.08</v>
-      </c>
-      <c r="AB21">
-        <v>1.43</v>
-      </c>
-      <c r="AC21">
-        <v>1.27</v>
-      </c>
-      <c r="AD21">
-        <v>2.7</v>
-      </c>
-      <c r="AE21">
-        <v>1.93</v>
-      </c>
-      <c r="AF21">
-        <v>7</v>
-      </c>
-      <c r="AG21">
-        <v>2.17</v>
-      </c>
-      <c r="AH21">
-        <v>1.34</v>
-      </c>
-      <c r="AI21">
-        <v>2.8</v>
-      </c>
-      <c r="AJ21">
-        <v>1.62</v>
-      </c>
-      <c r="AK21">
-        <v>2.1</v>
-      </c>
-      <c r="AL21">
-        <v>2.02</v>
-      </c>
-      <c r="AM21">
-        <v>1.67</v>
-      </c>
-      <c r="AN21">
-        <v>2.65</v>
-      </c>
       <c r="AO21">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AP21">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AQ21">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3719,16 +3695,16 @@
         <v>45382</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G22">
         <v>3.6</v>
@@ -3740,13 +3716,13 @@
         <v>3</v>
       </c>
       <c r="J22">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="K22">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="M22">
         <v>1.4</v>
@@ -3767,10 +3743,10 @@
         <v>3.3</v>
       </c>
       <c r="S22">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T22">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U22">
         <v>1.8</v>
@@ -3788,10 +3764,10 @@
         <v>1.39</v>
       </c>
       <c r="Z22">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AA22">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AB22">
         <v>1.31</v>
@@ -3844,195 +3820,195 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2">
         <v>45382</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G23">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H23">
+        <v>2.88</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>1.36</v>
+      </c>
+      <c r="K23">
+        <v>5.5</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>1.2</v>
+      </c>
+      <c r="N23">
+        <v>4.33</v>
+      </c>
+      <c r="O23">
+        <v>1.01</v>
+      </c>
+      <c r="P23">
+        <v>28</v>
+      </c>
+      <c r="Q23">
+        <v>1.11</v>
+      </c>
+      <c r="R23">
+        <v>7.2</v>
+      </c>
+      <c r="S23">
+        <v>1.4</v>
+      </c>
+      <c r="T23">
+        <v>2.9</v>
+      </c>
+      <c r="U23">
+        <v>1.57</v>
+      </c>
+      <c r="V23">
+        <v>2.25</v>
+      </c>
+      <c r="W23">
+        <v>1.08</v>
+      </c>
+      <c r="X23">
+        <v>1.14</v>
+      </c>
+      <c r="Y23">
+        <v>3.15</v>
+      </c>
+      <c r="Z23">
+        <v>2.6</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>2.33</v>
+      </c>
+      <c r="AC23">
+        <v>1.48</v>
+      </c>
+      <c r="AD23">
+        <v>3.81</v>
+      </c>
+      <c r="AE23">
+        <v>1.3</v>
+      </c>
+      <c r="AF23">
+        <v>9.5</v>
+      </c>
+      <c r="AG23">
+        <v>4.4</v>
+      </c>
+      <c r="AH23">
+        <v>1.19</v>
+      </c>
+      <c r="AI23">
+        <v>3.9</v>
+      </c>
+      <c r="AJ23">
+        <v>1.36</v>
+      </c>
+      <c r="AK23">
+        <v>2.75</v>
+      </c>
+      <c r="AL23">
+        <v>1.63</v>
+      </c>
+      <c r="AM23">
         <v>2.1</v>
       </c>
-      <c r="I23">
-        <v>5.5</v>
-      </c>
-      <c r="J23">
-        <v>1.55</v>
-      </c>
-      <c r="K23">
-        <v>3.7</v>
-      </c>
-      <c r="L23">
-        <v>5.65</v>
-      </c>
-      <c r="M23">
-        <v>1.44</v>
-      </c>
-      <c r="N23">
-        <v>2.63</v>
-      </c>
-      <c r="O23">
-        <v>1.08</v>
-      </c>
-      <c r="P23">
-        <v>8.5</v>
-      </c>
-      <c r="Q23">
-        <v>1.4</v>
-      </c>
-      <c r="R23">
-        <v>2.95</v>
-      </c>
-      <c r="S23">
-        <v>2.21</v>
-      </c>
-      <c r="T23">
-        <v>1.57</v>
-      </c>
-      <c r="U23">
-        <v>2.05</v>
-      </c>
-      <c r="V23">
-        <v>1.7</v>
-      </c>
-      <c r="W23">
-        <v>1.17</v>
-      </c>
-      <c r="X23">
-        <v>1.25</v>
-      </c>
-      <c r="Y23">
-        <v>2.15</v>
-      </c>
-      <c r="Z23">
-        <v>1.92</v>
-      </c>
-      <c r="AA23">
-        <v>1.08</v>
-      </c>
-      <c r="AB23">
-        <v>1.48</v>
-      </c>
-      <c r="AC23">
-        <v>1.11</v>
-      </c>
-      <c r="AD23">
-        <v>2.59</v>
-      </c>
-      <c r="AE23">
-        <v>1.47</v>
-      </c>
-      <c r="AF23">
-        <v>8</v>
-      </c>
-      <c r="AG23">
-        <v>3.3</v>
-      </c>
-      <c r="AH23">
-        <v>1.38</v>
-      </c>
-      <c r="AI23">
-        <v>2.65</v>
-      </c>
-      <c r="AJ23">
+      <c r="AN23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
         <v>1.68</v>
       </c>
-      <c r="AK23">
-        <v>2</v>
-      </c>
-      <c r="AL23">
-        <v>2.14</v>
-      </c>
-      <c r="AM23">
-        <v>1.6</v>
-      </c>
-      <c r="AN23">
-        <v>2.75</v>
-      </c>
-      <c r="AO23">
-        <v>1.35</v>
-      </c>
       <c r="AP23">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>45382</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G24">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H24">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="J24">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="K24">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>5.05</v>
+        <v>2.62</v>
       </c>
       <c r="M24">
+        <v>1.4</v>
+      </c>
+      <c r="N24">
+        <v>2.75</v>
+      </c>
+      <c r="O24">
+        <v>1.06</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
         <v>1.33</v>
       </c>
-      <c r="N24">
-        <v>3.25</v>
-      </c>
-      <c r="O24">
-        <v>1.04</v>
-      </c>
-      <c r="P24">
-        <v>8.5</v>
-      </c>
-      <c r="Q24">
-        <v>1.2</v>
-      </c>
       <c r="R24">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="S24">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="T24">
-        <v>2.13</v>
+        <v>1.78</v>
       </c>
       <c r="U24">
         <v>1.75</v>
@@ -4041,87 +4017,87 @@
         <v>2</v>
       </c>
       <c r="W24">
-        <v>1.11</v>
+        <v>1.46</v>
       </c>
       <c r="X24">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="Y24">
-        <v>2.3</v>
+        <v>1.49</v>
       </c>
       <c r="Z24">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AA24">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="AB24">
+        <v>1.43</v>
+      </c>
+      <c r="AC24">
+        <v>1.27</v>
+      </c>
+      <c r="AD24">
+        <v>2.7</v>
+      </c>
+      <c r="AE24">
         <v>1.93</v>
       </c>
-      <c r="AC24">
-        <v>1.32</v>
-      </c>
-      <c r="AD24">
-        <v>3.25</v>
-      </c>
-      <c r="AE24">
-        <v>1.42</v>
-      </c>
       <c r="AF24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG24">
-        <v>3.32</v>
+        <v>2.17</v>
       </c>
       <c r="AH24">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AI24">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="AJ24">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AK24">
-        <v>3.42</v>
+        <v>2.1</v>
       </c>
       <c r="AL24">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="AM24">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="AO24">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AP24">
-        <v>2.21</v>
+        <v>3.55</v>
       </c>
       <c r="AQ24">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2">
         <v>45382</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G25">
         <v>2.2</v>
@@ -4133,13 +4109,13 @@
         <v>5.5</v>
       </c>
       <c r="J25">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="K25">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L25">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>1.36</v>
@@ -4160,10 +4136,10 @@
         <v>3.75</v>
       </c>
       <c r="S25">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="T25">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U25">
         <v>1.91</v>
@@ -4181,10 +4157,10 @@
         <v>2.1</v>
       </c>
       <c r="Z25">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AA25">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB25">
         <v>1.51</v>
@@ -4237,22 +4213,22 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2">
         <v>45382</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4264,13 +4240,13 @@
         <v>6</v>
       </c>
       <c r="J26">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K26">
-        <v>4.45</v>
+        <v>3.9</v>
       </c>
       <c r="L26">
-        <v>6.25</v>
+        <v>4.9</v>
       </c>
       <c r="M26">
         <v>1.3</v>
@@ -4291,10 +4267,10 @@
         <v>4.2</v>
       </c>
       <c r="S26">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="T26">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="U26">
         <v>1.8</v>
@@ -4312,10 +4288,10 @@
         <v>2.6</v>
       </c>
       <c r="Z26">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AA26">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AB26">
         <v>1.59</v>
@@ -4327,19 +4303,19 @@
         <v>2.66</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ26">
         <v>1.24</v>
@@ -4374,127 +4350,127 @@
         <v>45382</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G27">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H27">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="K27">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L27">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="M27">
+        <v>1.33</v>
+      </c>
+      <c r="N27">
+        <v>3.25</v>
+      </c>
+      <c r="O27">
+        <v>1.04</v>
+      </c>
+      <c r="P27">
+        <v>8.5</v>
+      </c>
+      <c r="Q27">
         <v>1.2</v>
       </c>
-      <c r="N27">
-        <v>4.33</v>
-      </c>
-      <c r="O27">
-        <v>1.01</v>
-      </c>
-      <c r="P27">
-        <v>28</v>
-      </c>
-      <c r="Q27">
+      <c r="R27">
+        <v>3.9</v>
+      </c>
+      <c r="S27">
+        <v>1.72</v>
+      </c>
+      <c r="T27">
+        <v>2.07</v>
+      </c>
+      <c r="U27">
+        <v>1.75</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
         <v>1.11</v>
       </c>
-      <c r="R27">
-        <v>7.2</v>
-      </c>
-      <c r="S27">
-        <v>1.41</v>
-      </c>
-      <c r="T27">
-        <v>2.63</v>
-      </c>
-      <c r="U27">
-        <v>1.57</v>
-      </c>
-      <c r="V27">
-        <v>2.25</v>
-      </c>
-      <c r="W27">
-        <v>1.08</v>
-      </c>
       <c r="X27">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Y27">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="Z27">
-        <v>2.57</v>
+        <v>1.38</v>
       </c>
       <c r="AA27">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="AB27">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="AC27">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AD27">
-        <v>3.81</v>
+        <v>3.25</v>
       </c>
       <c r="AE27">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AF27">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG27">
-        <v>4.4</v>
+        <v>3.32</v>
       </c>
       <c r="AH27">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AI27">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AJ27">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AK27">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
       <c r="AL27">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AM27">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="AN27">
         <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AP27">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="AQ27">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4505,16 +4481,16 @@
         <v>45382</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4526,13 +4502,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="K28">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="L28">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
         <v>1.5</v>
@@ -4553,10 +4529,10 @@
         <v>2.9</v>
       </c>
       <c r="S28">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T28">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="U28">
         <v>1.91</v>
@@ -4574,10 +4550,10 @@
         <v>1.6</v>
       </c>
       <c r="Z28">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AA28">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AB28">
         <v>1.87</v>
@@ -4636,16 +4612,16 @@
         <v>45382</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G29">
         <v>2.3</v>
@@ -4657,13 +4633,13 @@
         <v>4.75</v>
       </c>
       <c r="J29">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K29">
         <v>3.9</v>
       </c>
       <c r="L29">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M29">
         <v>1.33</v>
@@ -4684,10 +4660,10 @@
         <v>4</v>
       </c>
       <c r="S29">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T29">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="U29">
         <v>1.75</v>
@@ -4705,10 +4681,10 @@
         <v>1.93</v>
       </c>
       <c r="Z29">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AA29">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AB29">
         <v>1.39</v>
@@ -4761,22 +4737,22 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>45382</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G30">
         <v>2.1</v>
@@ -4788,13 +4764,13 @@
         <v>5</v>
       </c>
       <c r="J30">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="K30">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L30">
-        <v>4.25</v>
+        <v>4.8</v>
       </c>
       <c r="M30">
         <v>1.3</v>
@@ -4815,10 +4791,10 @@
         <v>4.5</v>
       </c>
       <c r="S30">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="T30">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="U30">
         <v>1.7</v>
@@ -4836,10 +4812,10 @@
         <v>2.3</v>
       </c>
       <c r="Z30">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AA30">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AB30">
         <v>1.46</v>
@@ -4892,264 +4868,264 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2">
         <v>45382</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G31">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="H31">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="I31">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J31">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="K31">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="N31">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="O31">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="R31">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="S31">
-        <v>2.31</v>
+        <v>1.61</v>
       </c>
       <c r="T31">
-        <v>1.48</v>
+        <v>2.33</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V31">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="W31">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="X31">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="Y31">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z31">
-        <v>1.81</v>
+        <v>2.53</v>
       </c>
       <c r="AA31">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AC31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AD31">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
       <c r="AE31">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="AF31">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG31">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AH31">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AI31">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="AJ31">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="AK31">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="AL31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AM31">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="AN31">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="AO31">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="AP31">
-        <v>3.5</v>
+        <v>2.65</v>
       </c>
       <c r="AQ31">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2">
         <v>45382</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G32">
+        <v>3.75</v>
+      </c>
+      <c r="H32">
+        <v>1.95</v>
+      </c>
+      <c r="I32">
+        <v>3.4</v>
+      </c>
+      <c r="J32">
+        <v>2.8</v>
+      </c>
+      <c r="K32">
+        <v>3.1</v>
+      </c>
+      <c r="L32">
+        <v>2.5</v>
+      </c>
+      <c r="M32">
+        <v>1.57</v>
+      </c>
+      <c r="N32">
+        <v>2.25</v>
+      </c>
+      <c r="O32">
+        <v>1.1</v>
+      </c>
+      <c r="P32">
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <v>1.5</v>
+      </c>
+      <c r="R32">
+        <v>2.4</v>
+      </c>
+      <c r="S32">
+        <v>2.43</v>
+      </c>
+      <c r="T32">
+        <v>1.5</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1.73</v>
+      </c>
+      <c r="W32">
+        <v>1.5</v>
+      </c>
+      <c r="X32">
+        <v>1.3</v>
+      </c>
+      <c r="Y32">
+        <v>1.4</v>
+      </c>
+      <c r="Z32">
+        <v>1.88</v>
+      </c>
+      <c r="AA32">
+        <v>1.24</v>
+      </c>
+      <c r="AB32">
+        <v>1.4</v>
+      </c>
+      <c r="AC32">
+        <v>1.4</v>
+      </c>
+      <c r="AD32">
+        <v>2.8</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>7.5</v>
+      </c>
+      <c r="AG32">
+        <v>2.05</v>
+      </c>
+      <c r="AH32">
+        <v>1.3</v>
+      </c>
+      <c r="AI32">
+        <v>3.05</v>
+      </c>
+      <c r="AJ32">
+        <v>1.61</v>
+      </c>
+      <c r="AK32">
         <v>2.3</v>
       </c>
-      <c r="H32">
-        <v>2.38</v>
-      </c>
-      <c r="I32">
-        <v>4.75</v>
-      </c>
-      <c r="J32">
-        <v>1.54</v>
-      </c>
-      <c r="K32">
-        <v>4.1</v>
-      </c>
-      <c r="L32">
-        <v>4.8</v>
-      </c>
-      <c r="M32">
-        <v>1.33</v>
-      </c>
-      <c r="N32">
-        <v>3.25</v>
-      </c>
-      <c r="O32">
-        <v>1.05</v>
-      </c>
-      <c r="P32">
-        <v>16.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.22</v>
-      </c>
-      <c r="R32">
-        <v>4.33</v>
-      </c>
-      <c r="S32">
-        <v>1.55</v>
-      </c>
-      <c r="T32">
-        <v>2.19</v>
-      </c>
-      <c r="U32">
-        <v>1.67</v>
-      </c>
-      <c r="V32">
-        <v>2.1</v>
-      </c>
-      <c r="W32">
-        <v>1.19</v>
-      </c>
-      <c r="X32">
+      <c r="AL32">
+        <v>2</v>
+      </c>
+      <c r="AM32">
+        <v>1.8</v>
+      </c>
+      <c r="AN32">
+        <v>2.49</v>
+      </c>
+      <c r="AO32">
+        <v>1.53</v>
+      </c>
+      <c r="AP32">
+        <v>3.5</v>
+      </c>
+      <c r="AQ32">
         <v>1.24</v>
-      </c>
-      <c r="Y32">
-        <v>2.1</v>
-      </c>
-      <c r="Z32">
-        <v>2.5</v>
-      </c>
-      <c r="AA32">
-        <v>1.07</v>
-      </c>
-      <c r="AB32">
-        <v>1.56</v>
-      </c>
-      <c r="AC32">
-        <v>1.17</v>
-      </c>
-      <c r="AD32">
-        <v>2.73</v>
-      </c>
-      <c r="AE32">
-        <v>1.68</v>
-      </c>
-      <c r="AF32">
-        <v>8</v>
-      </c>
-      <c r="AG32">
-        <v>2.5</v>
-      </c>
-      <c r="AH32">
-        <v>1.2</v>
-      </c>
-      <c r="AI32">
-        <v>3.7</v>
-      </c>
-      <c r="AJ32">
-        <v>1.38</v>
-      </c>
-      <c r="AK32">
-        <v>2.65</v>
-      </c>
-      <c r="AL32">
-        <v>1.67</v>
-      </c>
-      <c r="AM32">
-        <v>2.04</v>
-      </c>
-      <c r="AN32">
-        <v>2.08</v>
-      </c>
-      <c r="AO32">
-        <v>1.64</v>
-      </c>
-      <c r="AP32">
-        <v>2.65</v>
-      </c>
-      <c r="AQ32">
-        <v>1.38</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5160,16 +5136,16 @@
         <v>45382</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G33">
         <v>3.1</v>
@@ -5181,13 +5157,13 @@
         <v>4.75</v>
       </c>
       <c r="J33">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="K33">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M33">
         <v>1.77</v>
@@ -5202,16 +5178,16 @@
         <v>5</v>
       </c>
       <c r="Q33">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R33">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T33">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U33">
         <v>2.5</v>
@@ -5229,10 +5205,10 @@
         <v>1.62</v>
       </c>
       <c r="Z33">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AA33">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AB33">
         <v>1.44</v>
@@ -5291,16 +5267,16 @@
         <v>45382</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -5312,13 +5288,13 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="K34">
         <v>4.4</v>
       </c>
       <c r="L34">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="M34">
         <v>1.33</v>
@@ -5339,10 +5315,10 @@
         <v>4.25</v>
       </c>
       <c r="S34">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="T34">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="U34">
         <v>1.91</v>
@@ -5360,10 +5336,10 @@
         <v>2.7</v>
       </c>
       <c r="Z34">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AA34">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AB34">
         <v>1.31</v>
@@ -5422,16 +5398,16 @@
         <v>45382</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G35">
         <v>2.75</v>
@@ -5443,13 +5419,13 @@
         <v>4</v>
       </c>
       <c r="J35">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="K35">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="L35">
-        <v>2.89</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
         <v>1.4</v>
@@ -5470,10 +5446,10 @@
         <v>3.3</v>
       </c>
       <c r="S35">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="T35">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="U35">
         <v>1.8</v>
@@ -5491,10 +5467,10 @@
         <v>1.78</v>
       </c>
       <c r="Z35">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AA35">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AB35">
         <v>1.87</v>
@@ -5553,16 +5529,16 @@
         <v>45382</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G36">
         <v>3.75</v>
@@ -5574,13 +5550,13 @@
         <v>2.88</v>
       </c>
       <c r="J36">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="M36">
         <v>1.4</v>
@@ -5601,10 +5577,10 @@
         <v>3.4</v>
       </c>
       <c r="S36">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="T36">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U36">
         <v>1.75</v>
@@ -5622,10 +5598,10 @@
         <v>1.36</v>
       </c>
       <c r="Z36">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AA36">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AB36">
         <v>1.68</v>
@@ -5684,16 +5660,16 @@
         <v>45382</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G37">
         <v>3.6</v>
@@ -5705,13 +5681,13 @@
         <v>2.88</v>
       </c>
       <c r="J37">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="K37">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="M37">
         <v>1.36</v>
@@ -5732,10 +5708,10 @@
         <v>3.6</v>
       </c>
       <c r="S37">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="U37">
         <v>1.7</v>
@@ -5753,10 +5729,10 @@
         <v>1.38</v>
       </c>
       <c r="Z37">
+        <v>1.29</v>
+      </c>
+      <c r="AA37">
         <v>1.15</v>
-      </c>
-      <c r="AA37">
-        <v>1.25</v>
       </c>
       <c r="AB37">
         <v>1.31</v>
@@ -5809,395 +5785,395 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2">
         <v>45382</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G38">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="H38">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="I38">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J38">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="K38">
-        <v>5.45</v>
+        <v>3.65</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M38">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O38">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P38">
-        <v>26</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q38">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="R38">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="S38">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
       <c r="T38">
-        <v>2.51</v>
+        <v>1.83</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="V38">
+      <c r="W38">
+        <v>1.09</v>
+      </c>
+      <c r="X38">
+        <v>1.18</v>
+      </c>
+      <c r="Y38">
+        <v>2.35</v>
+      </c>
+      <c r="Z38">
+        <v>1.92</v>
+      </c>
+      <c r="AA38">
+        <v>1.23</v>
+      </c>
+      <c r="AB38">
+        <v>1.72</v>
+      </c>
+      <c r="AC38">
+        <v>1.25</v>
+      </c>
+      <c r="AD38">
+        <v>2.97</v>
+      </c>
+      <c r="AE38">
+        <v>1.51</v>
+      </c>
+      <c r="AF38">
+        <v>8.1</v>
+      </c>
+      <c r="AG38">
+        <v>3.12</v>
+      </c>
+      <c r="AH38">
+        <v>1.3</v>
+      </c>
+      <c r="AI38">
+        <v>3.2</v>
+      </c>
+      <c r="AJ38">
+        <v>1.85</v>
+      </c>
+      <c r="AK38">
         <v>1.95</v>
       </c>
-      <c r="W38">
-        <v>1.08</v>
-      </c>
-      <c r="X38">
-        <v>1.14</v>
-      </c>
-      <c r="Y38">
-        <v>3.25</v>
-      </c>
-      <c r="Z38">
-        <v>2.46</v>
-      </c>
-      <c r="AA38">
-        <v>0.77</v>
-      </c>
-      <c r="AB38">
-        <v>1.93</v>
-      </c>
-      <c r="AC38">
-        <v>0.99</v>
-      </c>
-      <c r="AD38">
-        <v>2.92</v>
-      </c>
-      <c r="AE38">
-        <v>1.28</v>
-      </c>
-      <c r="AF38">
-        <v>10</v>
-      </c>
-      <c r="AG38">
-        <v>4.75</v>
-      </c>
-      <c r="AH38">
-        <v>1.21</v>
-      </c>
-      <c r="AI38">
-        <v>3.6</v>
-      </c>
-      <c r="AJ38">
-        <v>1.4</v>
-      </c>
-      <c r="AK38">
-        <v>2.6</v>
-      </c>
       <c r="AL38">
-        <v>1.68</v>
+        <v>2.03</v>
       </c>
       <c r="AM38">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="AO38">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AP38">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="AQ38">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>45382</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G39">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="H39">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="I39">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="J39">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="K39">
+        <v>5.8</v>
+      </c>
+      <c r="L39">
+        <v>8.5</v>
+      </c>
+      <c r="M39">
+        <v>1.22</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>1.03</v>
+      </c>
+      <c r="P39">
+        <v>26</v>
+      </c>
+      <c r="Q39">
+        <v>1.1</v>
+      </c>
+      <c r="R39">
+        <v>6.5</v>
+      </c>
+      <c r="S39">
+        <v>1.45</v>
+      </c>
+      <c r="T39">
+        <v>2.51</v>
+      </c>
+      <c r="U39">
+        <v>1.8</v>
+      </c>
+      <c r="V39">
+        <v>1.95</v>
+      </c>
+      <c r="W39">
+        <v>1.08</v>
+      </c>
+      <c r="X39">
+        <v>1.14</v>
+      </c>
+      <c r="Y39">
+        <v>3.25</v>
+      </c>
+      <c r="Z39">
+        <v>2.36</v>
+      </c>
+      <c r="AA39">
+        <v>0.79</v>
+      </c>
+      <c r="AB39">
+        <v>1.93</v>
+      </c>
+      <c r="AC39">
+        <v>0.99</v>
+      </c>
+      <c r="AD39">
+        <v>2.92</v>
+      </c>
+      <c r="AE39">
+        <v>1.28</v>
+      </c>
+      <c r="AF39">
+        <v>10</v>
+      </c>
+      <c r="AG39">
+        <v>4.75</v>
+      </c>
+      <c r="AH39">
+        <v>1.21</v>
+      </c>
+      <c r="AI39">
         <v>3.6</v>
       </c>
-      <c r="L39">
-        <v>3.9</v>
-      </c>
-      <c r="M39">
-        <v>1.33</v>
-      </c>
-      <c r="N39">
-        <v>3.25</v>
-      </c>
-      <c r="O39">
-        <v>1.04</v>
-      </c>
-      <c r="P39">
-        <v>14</v>
-      </c>
-      <c r="Q39">
-        <v>1.25</v>
-      </c>
-      <c r="R39">
-        <v>4.15</v>
-      </c>
-      <c r="S39">
-        <v>1.59</v>
-      </c>
-      <c r="T39">
-        <v>2.16</v>
-      </c>
-      <c r="U39">
-        <v>1.67</v>
-      </c>
-      <c r="V39">
+      <c r="AJ39">
+        <v>1.4</v>
+      </c>
+      <c r="AK39">
+        <v>2.6</v>
+      </c>
+      <c r="AL39">
+        <v>1.68</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
+      </c>
+      <c r="AN39">
         <v>2.1</v>
       </c>
-      <c r="W39">
-        <v>1.27</v>
-      </c>
-      <c r="X39">
-        <v>1.26</v>
-      </c>
-      <c r="Y39">
-        <v>1.97</v>
-      </c>
-      <c r="Z39">
-        <v>2.43</v>
-      </c>
-      <c r="AA39">
-        <v>2.07</v>
-      </c>
-      <c r="AB39">
-        <v>1.88</v>
-      </c>
-      <c r="AC39">
-        <v>1.7</v>
-      </c>
-      <c r="AD39">
-        <v>3.58</v>
-      </c>
-      <c r="AE39">
-        <v>1.68</v>
-      </c>
-      <c r="AF39">
-        <v>8</v>
-      </c>
-      <c r="AG39">
-        <v>2.5</v>
-      </c>
-      <c r="AH39">
-        <v>1.19</v>
-      </c>
-      <c r="AI39">
-        <v>3.9</v>
-      </c>
-      <c r="AJ39">
-        <v>1.35</v>
-      </c>
-      <c r="AK39">
-        <v>2.75</v>
-      </c>
-      <c r="AL39">
-        <v>1.61</v>
-      </c>
-      <c r="AM39">
-        <v>2.12</v>
-      </c>
-      <c r="AN39">
-        <v>1.98</v>
-      </c>
       <c r="AO39">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2">
         <v>45382</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G40">
+        <v>2.5</v>
+      </c>
+      <c r="H40">
+        <v>2.25</v>
+      </c>
+      <c r="I40">
+        <v>4.33</v>
+      </c>
+      <c r="J40">
+        <v>1.86</v>
+      </c>
+      <c r="K40">
+        <v>3.9</v>
+      </c>
+      <c r="L40">
+        <v>4.05</v>
+      </c>
+      <c r="M40">
+        <v>1.33</v>
+      </c>
+      <c r="N40">
+        <v>3.25</v>
+      </c>
+      <c r="O40">
+        <v>1.04</v>
+      </c>
+      <c r="P40">
+        <v>14</v>
+      </c>
+      <c r="Q40">
+        <v>1.25</v>
+      </c>
+      <c r="R40">
+        <v>4.15</v>
+      </c>
+      <c r="S40">
+        <v>1.66</v>
+      </c>
+      <c r="T40">
+        <v>2.23</v>
+      </c>
+      <c r="U40">
+        <v>1.67</v>
+      </c>
+      <c r="V40">
         <v>2.1</v>
       </c>
-      <c r="H40">
-        <v>2.2</v>
-      </c>
-      <c r="I40">
-        <v>5.5</v>
-      </c>
-      <c r="J40">
-        <v>1.74</v>
-      </c>
-      <c r="K40">
-        <v>3.35</v>
-      </c>
-      <c r="L40">
-        <v>3.85</v>
-      </c>
-      <c r="M40">
-        <v>1.39</v>
-      </c>
-      <c r="N40">
-        <v>2.8</v>
-      </c>
-      <c r="O40">
-        <v>1.02</v>
-      </c>
-      <c r="P40">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q40">
-        <v>1.3</v>
-      </c>
-      <c r="R40">
-        <v>3.3</v>
-      </c>
-      <c r="S40">
-        <v>1.81</v>
-      </c>
-      <c r="T40">
-        <v>1.73</v>
-      </c>
-      <c r="U40">
-        <v>1.95</v>
-      </c>
-      <c r="V40">
-        <v>1.8</v>
-      </c>
       <c r="W40">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="X40">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="Y40">
-        <v>2.35</v>
+        <v>1.97</v>
       </c>
       <c r="Z40">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AA40">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AB40">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AC40">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AD40">
-        <v>2.97</v>
+        <v>3.58</v>
       </c>
       <c r="AE40">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AF40">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AG40">
-        <v>3.12</v>
+        <v>2.5</v>
       </c>
       <c r="AH40">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AI40">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AJ40">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="AK40">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AL40">
-        <v>2.03</v>
+        <v>1.61</v>
       </c>
       <c r="AM40">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="AN40">
-        <v>2.65</v>
+        <v>1.98</v>
       </c>
       <c r="AO40">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AP40">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6208,16 +6184,16 @@
         <v>45382</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G41">
         <v>2.2</v>
@@ -6229,13 +6205,13 @@
         <v>6</v>
       </c>
       <c r="J41">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="K41">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L41">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="M41">
         <v>1.44</v>
@@ -6256,10 +6232,10 @@
         <v>3.25</v>
       </c>
       <c r="S41">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T41">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="U41">
         <v>2</v>
@@ -6277,10 +6253,10 @@
         <v>2.18</v>
       </c>
       <c r="Z41">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AA41">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AB41">
         <v>1.4</v>
@@ -6333,22 +6309,22 @@
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2">
         <v>45382</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G42">
         <v>7</v>
@@ -6360,13 +6336,13 @@
         <v>1.8</v>
       </c>
       <c r="J42">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="K42">
-        <v>5.05</v>
+        <v>4.75</v>
       </c>
       <c r="L42">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M42">
         <v>1.25</v>
@@ -6408,10 +6384,10 @@
         <v>1.01</v>
       </c>
       <c r="Z42">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AA42">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AB42">
         <v>1.39</v>
@@ -6432,10 +6408,10 @@
         <v>1.33</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ42">
         <v>1.23</v>
@@ -6464,133 +6440,133 @@
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
         <v>45382</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G43">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="I43">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J43">
-        <v>1.93</v>
+        <v>3.35</v>
       </c>
       <c r="K43">
-        <v>3.3</v>
+        <v>2.99</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="M43">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O43">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="P43">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="Q43">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="R43">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="S43">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="T43">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="U43">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V43">
+        <v>1.67</v>
+      </c>
+      <c r="W43">
+        <v>1.58</v>
+      </c>
+      <c r="X43">
+        <v>1.35</v>
+      </c>
+      <c r="Y43">
+        <v>1.33</v>
+      </c>
+      <c r="Z43">
+        <v>1.4</v>
+      </c>
+      <c r="AA43">
+        <v>1.63</v>
+      </c>
+      <c r="AB43">
+        <v>1.4</v>
+      </c>
+      <c r="AC43">
+        <v>1.25</v>
+      </c>
+      <c r="AD43">
+        <v>2.65</v>
+      </c>
+      <c r="AE43">
         <v>2.05</v>
       </c>
-      <c r="W43">
-        <v>1.36</v>
-      </c>
-      <c r="X43">
-        <v>1.25</v>
-      </c>
-      <c r="Y43">
-        <v>1.68</v>
-      </c>
-      <c r="Z43">
-        <v>1.87</v>
-      </c>
-      <c r="AA43">
-        <v>0.87</v>
-      </c>
-      <c r="AB43">
-        <v>1.6</v>
-      </c>
-      <c r="AC43">
-        <v>1.27</v>
-      </c>
-      <c r="AD43">
-        <v>2.87</v>
-      </c>
-      <c r="AE43">
-        <v>1.3</v>
-      </c>
       <c r="AF43">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG43">
-        <v>4.3</v>
+        <v>2.02</v>
       </c>
       <c r="AH43">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AI43">
-        <v>3.28</v>
+        <v>2.7</v>
       </c>
       <c r="AJ43">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="AK43">
-        <v>2.43</v>
+        <v>2.05</v>
       </c>
       <c r="AL43">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AM43">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AN43">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AP43">
-        <v>3.34</v>
+        <v>3.7</v>
       </c>
       <c r="AQ43">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6601,16 +6577,16 @@
         <v>45382</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G44">
         <v>2.1</v>
@@ -6622,13 +6598,13 @@
         <v>5.5</v>
       </c>
       <c r="J44">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="K44">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L44">
-        <v>5.65</v>
+        <v>5.3</v>
       </c>
       <c r="M44">
         <v>1.4</v>
@@ -6649,10 +6625,10 @@
         <v>3.35</v>
       </c>
       <c r="S44">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="T44">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -6670,10 +6646,10 @@
         <v>2.45</v>
       </c>
       <c r="Z44">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AA44">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AB44">
         <v>1.5</v>
@@ -6726,133 +6702,133 @@
     </row>
     <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>45382</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H45">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="I45">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J45">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="K45">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="L45">
-        <v>2.52</v>
+        <v>3.45</v>
       </c>
       <c r="M45">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="N45">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="P45">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="Q45">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="R45">
-        <v>2.39</v>
+        <v>3.75</v>
       </c>
       <c r="S45">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="U45">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V45">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W45">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="X45">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Y45">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="Z45">
+        <v>1.94</v>
+      </c>
+      <c r="AA45">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AB45">
+        <v>1.6</v>
+      </c>
+      <c r="AC45">
+        <v>1.27</v>
+      </c>
+      <c r="AD45">
+        <v>2.87</v>
+      </c>
+      <c r="AE45">
+        <v>1.3</v>
+      </c>
+      <c r="AF45">
+        <v>8.5</v>
+      </c>
+      <c r="AG45">
+        <v>4.3</v>
+      </c>
+      <c r="AH45">
+        <v>1.27</v>
+      </c>
+      <c r="AI45">
+        <v>3.28</v>
+      </c>
+      <c r="AJ45">
         <v>1.5</v>
       </c>
-      <c r="AA45">
-        <v>1.53</v>
-      </c>
-      <c r="AB45">
-        <v>1.4</v>
-      </c>
-      <c r="AC45">
-        <v>1.25</v>
-      </c>
-      <c r="AD45">
-        <v>2.65</v>
-      </c>
-      <c r="AE45">
-        <v>2.05</v>
-      </c>
-      <c r="AF45">
-        <v>7.5</v>
-      </c>
-      <c r="AG45">
-        <v>2.02</v>
-      </c>
-      <c r="AH45">
-        <v>1.37</v>
-      </c>
-      <c r="AI45">
-        <v>2.7</v>
-      </c>
-      <c r="AJ45">
-        <v>1.66</v>
-      </c>
       <c r="AK45">
-        <v>2.05</v>
+        <v>2.43</v>
       </c>
       <c r="AL45">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AM45">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AN45">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AO45">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>3.7</v>
+        <v>3.34</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="46" spans="1:43">
@@ -6863,16 +6839,16 @@
         <v>45382</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -6884,13 +6860,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="K46">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -6911,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="T46">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -6932,10 +6908,10 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AA46">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AB46">
         <v>1.39</v>
@@ -6994,16 +6970,16 @@
         <v>45382</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47">
         <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G47">
         <v>2.25</v>
@@ -7015,13 +6991,13 @@
         <v>4.75</v>
       </c>
       <c r="J47">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="L47">
-        <v>4.95</v>
+        <v>4.85</v>
       </c>
       <c r="M47">
         <v>1.3</v>
@@ -7042,10 +7018,10 @@
         <v>4.37</v>
       </c>
       <c r="S47">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T47">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="U47">
         <v>1.7</v>
@@ -7063,10 +7039,10 @@
         <v>2.1</v>
       </c>
       <c r="Z47">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AA47">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AB47">
         <v>1.7</v>
@@ -7125,16 +7101,16 @@
         <v>45382</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G48">
         <v>2.5</v>
@@ -7146,13 +7122,13 @@
         <v>4.33</v>
       </c>
       <c r="J48">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L48">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="M48">
         <v>1.4</v>
@@ -7173,10 +7149,10 @@
         <v>3.6</v>
       </c>
       <c r="S48">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U48">
         <v>1.75</v>
@@ -7194,10 +7170,10 @@
         <v>1.9</v>
       </c>
       <c r="Z48">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AA48">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AB48">
         <v>2.06</v>
@@ -7256,16 +7232,16 @@
         <v>45382</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F49" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G49">
         <v>2.05</v>
@@ -7277,13 +7253,13 @@
         <v>6.5</v>
       </c>
       <c r="J49">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="K49">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="L49">
-        <v>5.55</v>
+        <v>6.1</v>
       </c>
       <c r="M49">
         <v>1.4</v>
@@ -7304,10 +7280,10 @@
         <v>3.6</v>
       </c>
       <c r="S49">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T49">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="U49">
         <v>2.05</v>
@@ -7325,10 +7301,10 @@
         <v>2.7</v>
       </c>
       <c r="Z49">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AA49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AB49">
         <v>1.7</v>
@@ -7387,16 +7363,16 @@
         <v>45382</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -7408,13 +7384,13 @@
         <v>2.65</v>
       </c>
       <c r="J50">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K50">
-        <v>2.87</v>
+        <v>3.4</v>
       </c>
       <c r="L50">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="M50">
         <v>1.41</v>
@@ -7435,10 +7411,10 @@
         <v>3.1</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T50">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="U50">
         <v>1.8</v>
@@ -7456,10 +7432,10 @@
         <v>1.25</v>
       </c>
       <c r="Z50">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AA50">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AB50">
         <v>1.84</v>
@@ -7518,16 +7494,16 @@
         <v>45382</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51">
         <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G51">
         <v>3.6</v>
@@ -7539,10 +7515,10 @@
         <v>2.63</v>
       </c>
       <c r="J51">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K51">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L51">
         <v>2.15</v>
@@ -7566,10 +7542,10 @@
         <v>4.75</v>
       </c>
       <c r="S51">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="T51">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="U51">
         <v>1.53</v>
@@ -7587,10 +7563,10 @@
         <v>1.37</v>
       </c>
       <c r="Z51">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AA51">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AB51">
         <v>1.57</v>
@@ -7643,22 +7619,22 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2">
         <v>45382</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G52">
         <v>2.1</v>
@@ -7670,13 +7646,13 @@
         <v>5.5</v>
       </c>
       <c r="J52">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K52">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="L52">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M52">
         <v>1.33</v>
@@ -7697,10 +7673,10 @@
         <v>3.92</v>
       </c>
       <c r="S52">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="U52">
         <v>1.8</v>
@@ -7718,10 +7694,10 @@
         <v>2.3</v>
       </c>
       <c r="Z52">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AA52">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AB52">
         <v>2.06</v>
@@ -7770,399 +7746,6 @@
       </c>
       <c r="AQ52">
         <v>1.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45382</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" t="s">
-        <v>190</v>
-      </c>
-      <c r="G53">
-        <v>3.4</v>
-      </c>
-      <c r="H53">
-        <v>1.91</v>
-      </c>
-      <c r="I53">
-        <v>3.4</v>
-      </c>
-      <c r="J53">
-        <v>2.8</v>
-      </c>
-      <c r="K53">
-        <v>2.9</v>
-      </c>
-      <c r="L53">
-        <v>2.55</v>
-      </c>
-      <c r="M53">
-        <v>1.52</v>
-      </c>
-      <c r="N53">
-        <v>2.43</v>
-      </c>
-      <c r="O53">
-        <v>1.06</v>
-      </c>
-      <c r="P53">
-        <v>6.75</v>
-      </c>
-      <c r="Q53">
-        <v>1.43</v>
-      </c>
-      <c r="R53">
-        <v>2.54</v>
-      </c>
-      <c r="S53">
-        <v>2.38</v>
-      </c>
-      <c r="T53">
-        <v>1.53</v>
-      </c>
-      <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53">
-        <v>1.73</v>
-      </c>
-      <c r="W53">
-        <v>1.45</v>
-      </c>
-      <c r="X53">
-        <v>1.33</v>
-      </c>
-      <c r="Y53">
-        <v>1.39</v>
-      </c>
-      <c r="Z53">
-        <v>1.43</v>
-      </c>
-      <c r="AA53">
-        <v>1</v>
-      </c>
-      <c r="AB53">
-        <v>1.4</v>
-      </c>
-      <c r="AC53">
-        <v>1.35</v>
-      </c>
-      <c r="AD53">
-        <v>2.75</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>1.29</v>
-      </c>
-      <c r="AI53">
-        <v>3.3</v>
-      </c>
-      <c r="AJ53">
-        <v>1.5</v>
-      </c>
-      <c r="AK53">
-        <v>2.52</v>
-      </c>
-      <c r="AL53">
-        <v>1.84</v>
-      </c>
-      <c r="AM53">
-        <v>1.96</v>
-      </c>
-      <c r="AN53">
-        <v>2.31</v>
-      </c>
-      <c r="AO53">
-        <v>1.58</v>
-      </c>
-      <c r="AP53">
-        <v>2.9</v>
-      </c>
-      <c r="AQ53">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45382</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54">
-        <v>2.5</v>
-      </c>
-      <c r="H54">
-        <v>2.05</v>
-      </c>
-      <c r="I54">
-        <v>4.75</v>
-      </c>
-      <c r="J54">
-        <v>1.83</v>
-      </c>
-      <c r="K54">
-        <v>3.2</v>
-      </c>
-      <c r="L54">
-        <v>4.2</v>
-      </c>
-      <c r="M54">
-        <v>1.42</v>
-      </c>
-      <c r="N54">
-        <v>2.55</v>
-      </c>
-      <c r="O54">
-        <v>1.05</v>
-      </c>
-      <c r="P54">
-        <v>7.5</v>
-      </c>
-      <c r="Q54">
-        <v>1.35</v>
-      </c>
-      <c r="R54">
-        <v>2.9</v>
-      </c>
-      <c r="S54">
-        <v>2.25</v>
-      </c>
-      <c r="T54">
-        <v>1.62</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.73</v>
-      </c>
-      <c r="W54">
-        <v>1.18</v>
-      </c>
-      <c r="X54">
-        <v>1.25</v>
-      </c>
-      <c r="Y54">
-        <v>1.8</v>
-      </c>
-      <c r="Z54">
-        <v>2.17</v>
-      </c>
-      <c r="AA54">
-        <v>1.63</v>
-      </c>
-      <c r="AB54">
-        <v>1.82</v>
-      </c>
-      <c r="AC54">
-        <v>1.19</v>
-      </c>
-      <c r="AD54">
-        <v>3.01</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>1.33</v>
-      </c>
-      <c r="AI54">
-        <v>3</v>
-      </c>
-      <c r="AJ54">
-        <v>1.58</v>
-      </c>
-      <c r="AK54">
-        <v>2.33</v>
-      </c>
-      <c r="AL54">
-        <v>1.97</v>
-      </c>
-      <c r="AM54">
-        <v>1.83</v>
-      </c>
-      <c r="AN54">
-        <v>2.53</v>
-      </c>
-      <c r="AO54">
-        <v>1.5</v>
-      </c>
-      <c r="AP54">
-        <v>3.2</v>
-      </c>
-      <c r="AQ54">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:43">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45382</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55">
-        <v>3.2</v>
-      </c>
-      <c r="H55">
-        <v>1.91</v>
-      </c>
-      <c r="I55">
-        <v>3.6</v>
-      </c>
-      <c r="J55">
-        <v>2.45</v>
-      </c>
-      <c r="K55">
-        <v>2.9</v>
-      </c>
-      <c r="L55">
-        <v>2.88</v>
-      </c>
-      <c r="M55">
-        <v>1.51</v>
-      </c>
-      <c r="N55">
-        <v>2.4</v>
-      </c>
-      <c r="O55">
-        <v>1.07</v>
-      </c>
-      <c r="P55">
-        <v>6.5</v>
-      </c>
-      <c r="Q55">
-        <v>1.42</v>
-      </c>
-      <c r="R55">
-        <v>2.6</v>
-      </c>
-      <c r="S55">
-        <v>2.38</v>
-      </c>
-      <c r="T55">
-        <v>1.53</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
-      <c r="V55">
-        <v>1.73</v>
-      </c>
-      <c r="W55">
-        <v>1.3</v>
-      </c>
-      <c r="X55">
-        <v>1.3</v>
-      </c>
-      <c r="Y55">
-        <v>1.47</v>
-      </c>
-      <c r="Z55">
-        <v>1.29</v>
-      </c>
-      <c r="AA55">
-        <v>0.75</v>
-      </c>
-      <c r="AB55">
-        <v>1.41</v>
-      </c>
-      <c r="AC55">
-        <v>1.24</v>
-      </c>
-      <c r="AD55">
-        <v>2.65</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>1.33</v>
-      </c>
-      <c r="AI55">
-        <v>3</v>
-      </c>
-      <c r="AJ55">
-        <v>1.57</v>
-      </c>
-      <c r="AK55">
-        <v>2.34</v>
-      </c>
-      <c r="AL55">
-        <v>1.96</v>
-      </c>
-      <c r="AM55">
-        <v>1.84</v>
-      </c>
-      <c r="AN55">
-        <v>2.5</v>
-      </c>
-      <c r="AO55">
-        <v>1.51</v>
-      </c>
-      <c r="AP55">
-        <v>3.2</v>
-      </c>
-      <c r="AQ55">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>
